--- a/Ch_6_Form/AH Corpus Foot Ana Graphs.xlsx
+++ b/Ch_6_Form/AH Corpus Foot Ana Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\antoi\GitHub\PhD\Ch_6_Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83AA80-DC6F-4DD8-BD61-93827BC29442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040D109-6031-47A9-9CCB-DF8845C40D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>NB</t>
   </si>
   <si>
-    <t>exp(log(lh_slope))</t>
+    <t>exp(log_lh_slope)</t>
   </si>
 </sst>
 </file>
@@ -292,6 +292,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,7 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +313,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF47298A"/>
       <color rgb="FFE7298A"/>
       <color rgb="FF7570B3"/>
       <color rgb="FFD95F02"/>
@@ -320,7 +321,6 @@
       <color rgb="FFFFCC66"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF805DCF"/>
-      <color rgb="FF47298A"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -20541,7 +20541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$29</c:f>
+              <c:f>'nuc slope exc'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20563,7 +20563,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$29:$B$30</c:f>
+              <c:f>'nuc slope exc'!$B$20:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20578,11 +20578,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$29:$C$30</c:f>
+              <c:f>'nuc slope exc'!$D$20:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -20594,7 +20594,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7F3F-42A6-B28E-E48AE704D9E3}"/>
+              <c16:uniqueId val="{00000000-A86A-4F38-92D6-A63F8BFF675C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20603,7 +20603,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$27</c:f>
+              <c:f>'nuc slope exc'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20625,7 +20625,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$27:$B$28</c:f>
+              <c:f>'nuc slope exc'!$B$18:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20640,7 +20640,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$27:$C$28</c:f>
+              <c:f>'nuc slope exc'!$D$18:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20656,7 +20656,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7F3F-42A6-B28E-E48AE704D9E3}"/>
+              <c16:uniqueId val="{00000001-A86A-4F38-92D6-A63F8BFF675C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20665,7 +20665,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$25</c:f>
+              <c:f>'nuc slope exc'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20675,11 +20675,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="D95F02"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -20687,7 +20686,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$25:$B$26</c:f>
+              <c:f>'nuc slope exc'!$B$16:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20702,7 +20701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$25:$C$26</c:f>
+              <c:f>'nuc slope exc'!$D$16:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20718,7 +20717,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7F3F-42A6-B28E-E48AE704D9E3}"/>
+              <c16:uniqueId val="{00000002-A86A-4F38-92D6-A63F8BFF675C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20727,7 +20726,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$23</c:f>
+              <c:f>'nuc slope exc'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20749,7 +20748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$23:$B$24</c:f>
+              <c:f>'nuc slope exc'!$B$14:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -20764,11 +20763,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$23:$C$24</c:f>
+              <c:f>'nuc slope exc'!$D$14:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -20780,7 +20779,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F3F-42A6-B28E-E48AE704D9E3}"/>
+              <c16:uniqueId val="{00000003-A86A-4F38-92D6-A63F8BFF675C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20870,8 +20869,6 @@
         <c:axId val="755857071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -20959,8 +20956,8 @@
         <c:crossAx val="755857903"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="2"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -20982,7 +20979,7 @@
           <c:x val="9.0809748534842333E-2"/>
           <c:y val="0.13839592592592589"/>
           <c:w val="0.28227747892844907"/>
-          <c:h val="0.32104148148148148"/>
+          <c:h val="0.28341185185185186"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -22116,7 +22113,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Estimated lh_slope re pre_syls</a:t>
+              <a:t>Estimated log lh_slope re foot_syls</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22130,10 +22127,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9768196164463642E-2"/>
+          <c:x val="6.5090773647751565E-2"/>
           <c:y val="0.1186387099442883"/>
-          <c:w val="0.71817664995607011"/>
-          <c:h val="0.71339444444444444"/>
+          <c:w val="0.72285442890214413"/>
+          <c:h val="0.7180981481481481"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -22144,11 +22141,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$37</c:f>
+              <c:f>'nuc slope exc'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pre_3</c:v>
+                  <c:v>syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22158,7 +22155,7 @@
               <a:solidFill>
                 <a:srgbClr val="E7298A"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -22166,7 +22163,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$37:$B$38</c:f>
+              <c:f>'nuc slope exc'!$B$20:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22181,15 +22178,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$37:$C$38</c:f>
+              <c:f>'nuc slope exc'!$C$20:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.366490592053189</c:v>
+                  <c:v>2.5470000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22197,7 +22194,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F24D-46C3-8490-6A469C027BFD}"/>
+              <c16:uniqueId val="{00000000-20BE-4B23-9E1A-CEC52C9A5D27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22206,11 +22203,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$35</c:f>
+              <c:f>'nuc slope exc'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pre_2</c:v>
+                  <c:v>syls3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22228,7 +22225,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$35:$B$36</c:f>
+              <c:f>'nuc slope exc'!$B$18:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22243,7 +22240,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$35:$C$36</c:f>
+              <c:f>'nuc slope exc'!$C$18:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22251,7 +22248,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.725766206394184</c:v>
+                  <c:v>3.1930000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22259,7 +22256,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F24D-46C3-8490-6A469C027BFD}"/>
+              <c16:uniqueId val="{00000001-20BE-4B23-9E1A-CEC52C9A5D27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22268,11 +22265,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$33</c:f>
+              <c:f>'nuc slope exc'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pre_1</c:v>
+                  <c:v>syls2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22290,7 +22287,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$33:$B$34</c:f>
+              <c:f>'nuc slope exc'!$B$16:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22305,7 +22302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$33:$C$34</c:f>
+              <c:f>'nuc slope exc'!$C$16:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22313,7 +22310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.452133901787732</c:v>
+                  <c:v>3.2989999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22321,7 +22318,7 @@
           <c:smooth val="1"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F24D-46C3-8490-6A469C027BFD}"/>
+              <c16:uniqueId val="{00000002-20BE-4B23-9E1A-CEC52C9A5D27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22330,11 +22327,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$31</c:f>
+              <c:f>'nuc slope exc'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pre_0</c:v>
+                  <c:v>syls1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22352,7 +22349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$31:$B$32</c:f>
+              <c:f>'nuc slope exc'!$B$14:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22367,15 +22364,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'nuc slope exc'!$C$31:$C$32</c:f>
+              <c:f>'nuc slope exc'!$C$14:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.71572661723382</c:v>
+                  <c:v>3.3220000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22383,7 +22380,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F24D-46C3-8490-6A469C027BFD}"/>
+              <c16:uniqueId val="{00000003-20BE-4B23-9E1A-CEC52C9A5D27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22453,6 +22450,16 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="755857071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -22463,8 +22470,6 @@
         <c:axId val="755857071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -22510,7 +22515,7 @@
                   <a:t>f</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="0" baseline="-25000">
+                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -22518,7 +22523,7 @@
                   <a:t>0</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="0">
+                  <a:rPr lang="en-IE" sz="900" b="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -22539,11 +22544,21 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="755857903"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="2"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -22562,9 +22577,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9664985761986999E-2"/>
-          <c:y val="0.1430996296296296"/>
-          <c:w val="0.29534241201090383"/>
+          <c:x val="9.0809748534842333E-2"/>
+          <c:y val="0.13839592592592589"/>
+          <c:w val="0.28227747892844907"/>
           <c:h val="0.32104148148148148"/>
         </c:manualLayout>
       </c:layout>
@@ -22742,7 +22757,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-55B1-4103-B617-141286D8AB02}"/>
+                <c16:uniqueId val="{00000001-656C-423C-BA28-65EBEBDC88EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22763,7 +22778,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-55B1-4103-B617-141286D8AB02}"/>
+                <c16:uniqueId val="{00000003-656C-423C-BA28-65EBEBDC88EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22784,7 +22799,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-55B1-4103-B617-141286D8AB02}"/>
+                <c16:uniqueId val="{00000005-656C-423C-BA28-65EBEBDC88EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22859,7 +22874,7 @@
             <c:numRef>
               <c:f>'nuc slope exc'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.1630000000000003</c:v>
@@ -22878,7 +22893,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B354-4B5F-9C48-C2B0AA273198}"/>
+              <c16:uniqueId val="{00000006-656C-423C-BA28-65EBEBDC88EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22890,8 +22905,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
         <c:axId val="1845903376"/>
         <c:axId val="1845907120"/>
       </c:barChart>
@@ -23099,1069 +23113,6 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" sz="1000" b="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Estimated log lh_slope re foot_syls</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5090773647751565E-2"/>
-          <c:y val="0.1186387099442883"/>
-          <c:w val="0.72285442890214413"/>
-          <c:h val="0.7180981481481481"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$29:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$29:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1061480454075825</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A32D-483C-B573-EF7EE0298A52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$27:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$27:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3867022807170832</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A32D-483C-B573-EF7EE0298A52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$25:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$25:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4327374957988277</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A32D-483C-B573-EF7EE0298A52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$23:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$23:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4427262688826026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A32D-483C-B573-EF7EE0298A52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="755857903"/>
-        <c:axId val="755857071"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="755857903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0"/>
-                  <a:t>secs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755857071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="755857071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755857903"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.0809748534842333E-2"/>
-          <c:y val="0.13839592592592589"/>
-          <c:w val="0.28227747892844907"/>
-          <c:h val="0.28341185185185186"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" sz="1000" b="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Estimated log lh_slope re pre_syls</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.9768196164463642E-2"/>
-          <c:y val="0.1186387099442883"/>
-          <c:w val="0.71817664995607011"/>
-          <c:h val="0.71339444444444444"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pre_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$37:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$37:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6060209940782253</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EE7-46FB-8C51-066B90C43ABF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pre_2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$35:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$35:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5990722823677732</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EE7-46FB-8C51-066B90C43ABF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pre_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$33:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$33:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5617229569240936</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1EE7-46FB-8C51-066B90C43ABF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pre_0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$31:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$D$31:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4427262688826026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1EE7-46FB-8C51-066B90C43ABF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="755857903"/>
-        <c:axId val="755857071"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="755857903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0"/>
-                  <a:t>secs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="755857071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="755857071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="0" baseline="-25000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="755857903"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.9664985761986999E-2"/>
-          <c:y val="0.1430996296296296"/>
-          <c:w val="0.29534241201090383"/>
-          <c:h val="0.29281925925925928"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
@@ -24236,9 +23187,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -24250,10 +23200,22 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="1B9E77"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -24267,13 +23229,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2E46-47E2-A5A4-E29669E45D94}"/>
+                <c16:uniqueId val="{00000001-D89A-47CC-9A50-CA5555C20406}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="D95F02"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -24287,13 +23262,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2E46-47E2-A5A4-E29669E45D94}"/>
+                <c16:uniqueId val="{00000003-D89A-47CC-9A50-CA5555C20406}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7570B3"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -24307,13 +23295,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2E46-47E2-A5A4-E29669E45D94}"/>
+                <c16:uniqueId val="{00000005-D89A-47CC-9A50-CA5555C20406}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="E7298A"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -24327,52 +23328,53 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2E46-47E2-A5A4-E29669E45D94}"/>
+                <c16:uniqueId val="{00000007-D89A-47CC-9A50-CA5555C20406}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:errBars>
+            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'nuc slope exc'!$F$42:$F$45</c:f>
+                <c:f>'nuc slope exc'!$F$8:$F$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.12821488867323416</c:v>
+                    <c:v>0.29522569135888022</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21318441332639138</c:v>
+                    <c:v>0.49087525218403005</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12839755684248444</c:v>
+                    <c:v>0.29564630036235995</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21302323423561687</c:v>
+                    <c:v>0.49050412361231022</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'nuc slope exc'!$F$42:$F$45</c:f>
+                <c:f>'nuc slope exc'!$F$8:$F$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.12821488867323416</c:v>
+                    <c:v>0.29522569135888022</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.21318441332639138</c:v>
+                    <c:v>0.49087525218403005</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.12839755684248444</c:v>
+                    <c:v>0.29564630036235995</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21302323423561687</c:v>
+                    <c:v>0.49050412361231022</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24380,7 +23382,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'nuc slope exc'!$A$12:$A$15</c:f>
+              <c:f>'nuc slope exc'!$A$8:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -24400,28 +23402,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'nuc slope exc'!$B$42:$B$45</c:f>
+              <c:f>'nuc slope exc'!$B$8:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4427262688826026</c:v>
+                  <c:v>3.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4327374957988277</c:v>
+                  <c:v>3.2989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3867022807170832</c:v>
+                  <c:v>3.1930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1061480454075825</c:v>
+                  <c:v>2.5470000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2E46-47E2-A5A4-E29669E45D94}"/>
+              <c16:uniqueId val="{00000008-D89A-47CC-9A50-CA5555C20406}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24433,11 +23436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1845903376"/>
         <c:axId val="1845907120"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1845903376"/>
         <c:scaling>
@@ -24493,904 +23496,7 @@
         <c:axId val="1845907120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0" i="1">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0" baseline="-25000">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1845903376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
-      </c:dTable>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" i="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Estimated log lh_slope re pre_syls</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4343-43D0-8576-8A11E0EA4C8F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4343-43D0-8576-8A11E0EA4C8F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4343-43D0-8576-8A11E0EA4C8F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4343-43D0-8576-8A11E0EA4C8F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'nuc slope exc'!$F$46:$F$49</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.12821488867323416</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12825777858453891</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.185967203285198</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.18574732713610764</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'nuc slope exc'!$F$46:$F$49</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.12821488867323416</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.12825777858453891</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.185967203285198</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.18574732713610764</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$16:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>pre_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>pre_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>pre_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pre_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$46:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4427262688826026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5617229569240936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5990722823677732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6060209940782253</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4343-43D0-8576-8A11E0EA4C8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1845903376"/>
-        <c:axId val="1845907120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1845903376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1845907120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1845907120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0" i="1">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0" baseline="-25000">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" b="0">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1845903376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="0"/>
-      </c:dTable>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" i="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Estimated </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" i="1">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>f</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" baseline="-25000">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> excursion re pre_syls</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>f0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7570B3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-41E9-4C28-8078-B48BB80E90F3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-41E9-4C28-8078-B48BB80E90F3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-41E9-4C28-8078-B48BB80E90F3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'nuc slope exc'!$F$6:$F$9</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.7501581088798703</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7511815467996601</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.5999020116917499</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.60013678857768</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'nuc slope exc'!$F$6:$F$9</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.7501581088798703</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.7511815467996601</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.5999020116917499</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.60013678857768</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'nuc slope exc'!$A$6:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>pre_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>pre_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>pre_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pre_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'nuc slope exc'!$B$6:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.1630000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4089999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3140000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-41E9-4C28-8078-B48BB80E90F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1845903376"/>
-        <c:axId val="1845907120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1845903376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1845907120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1845907120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -25486,8 +23592,8 @@
         <c:crossAx val="1845903376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="0.5"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -25523,7 +23629,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -26558,7 +24664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -27200,7 +25306,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -27717,6 +25823,2347 @@
               <c:yMode val="edge"/>
               <c:x val="6.6479472698533451E-2"/>
               <c:y val="0.33223402777777783"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275931391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="D9D9D9"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0"/>
+              <a:t>Estimated PN tonal targets (L*H)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ana_0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-163C-46ED-97D2-058F4FF258AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$3,'pn ana'!$F$16,'pn ana'!$F$29)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>82.157542063970936</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$3,'pn ana'!$F$16,'pn ana'!$F$29)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>82.157542063970936</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="1B9E77">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$9,'pn ana'!$F$22,'pn ana'!$F$35)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0952017103067959</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$9,'pn ana'!$F$22,'pn ana'!$F$35)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0952017103067959</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="1B9E77">
+                    <a:alpha val="49804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$3,'pn ana'!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$9,'pn ana'!$B$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.281999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-163C-46ED-97D2-058F4FF258AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ana_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$10,'pn ana'!$F$23,'pn ana'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0352303595406056</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$10,'pn ana'!$F$23,'pn ana'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.0352303595406056</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$4,'pn ana'!$F$17,'pn ana'!$F$30)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>42.020919011516497</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$4,'pn ana'!$F$17,'pn ana'!$F$30)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>42.020919011516497</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$4,'pn ana'!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26.279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.13999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$10,'pn ana'!$B$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>86.394000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-163C-46ED-97D2-058F4FF258AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ana_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$5,'pn ana'!$F$18,'pn ana'!$F$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>96.137628388527105</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$5,'pn ana'!$F$18,'pn ana'!$F$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>96.137628388527105</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$11,'pn ana'!$F$24,'pn ana'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.1096701456710036</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$11,'pn ana'!$F$24,'pn ana'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.1096701456710036</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$5,'pn ana'!$B$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70.254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.47900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$11,'pn ana'!$B$24)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.480999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-163C-46ED-97D2-058F4FF258AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ana_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$6,'pn ana'!$F$19,'pn ana'!$F$32)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>96.232331798183296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$6,'pn ana'!$F$19,'pn ana'!$F$32)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>96.232331798183296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E7298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$12,'pn ana'!$F$25,'pn ana'!$F$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.109208854495904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn ana'!$F$12,'pn ana'!$F$25,'pn ana'!$F$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.109208854495904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E7298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$6,'pn ana'!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236.447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn ana'!$B$12,'pn ana'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.777000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-163C-46ED-97D2-058F4FF258AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="501388352"/>
+        <c:axId val="501389184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="501388352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501389184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501389184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="92"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(ST re 1 Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501388352"/>
+        <c:crossesAt val="-50"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60144518518518519"/>
+          <c:y val="0.55971000000000004"/>
+          <c:w val="0.28862060041407867"/>
+          <c:h val="0.21721061359867333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t>Est. alignment of PN L and H re foot_syls (L*H)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="47298A">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pn ana'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ana_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ana_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ana_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ana_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pn ana'!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>227.072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.47900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>236.447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C743-4AA9-B109-D996ABD7E104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>l_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D95F02">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D95F02">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>84.741118289466016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.889382377743985</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>82.978266682289018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>82.970403609691999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pn ana'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ana_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ana_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ana_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ana_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pn ana'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.097999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C743-4AA9-B109-D996ABD7E104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1275931391"/>
+        <c:axId val="1583977055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1275931391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583977055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1583977055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>time from vowel onset (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.0328037027950211E-2"/>
+              <c:y val="0.19553263888888889"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275931391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="D9D9D9"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t>Estimated </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" i="1"/>
+              <a:t>f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="-25000"/>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t> of PN L and H re foot_syls (L*H)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h_f0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$22:$F$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$22:$F$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pn ana'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ana_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ana_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ana_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ana_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pn ana'!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>88.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.480999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.777000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2584-43C1-9BDD-255F356E465B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn ana'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>l_f0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D95F02">
+                  <a:alpha val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$22:$F$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'pn ana'!$F$22:$F$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8870313322402978</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8112964489597942</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9088628850395963</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9101284815170061</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02">
+                    <a:alpha val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pn ana'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ana_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ana_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ana_2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ana_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pn ana'!$B$9:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.394000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.277000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2584-43C1-9BDD-255F356E465B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1275931391"/>
+        <c:axId val="1583977055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1275931391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583977055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1583977055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="92"/>
+          <c:min val="82"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1"/>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" baseline="-25000"/>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t> (ST re 1 Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.0512091824325135E-2"/>
+              <c:y val="0.3145951388888889"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -28897,2347 +29344,6 @@
     <a:p>
       <a:pPr>
         <a:defRPr b="0">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0"/>
-              <a:t>Estimated PN tonal targets (L*H)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ana_0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-163C-46ED-97D2-058F4FF258AC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$3,'pn ana'!$F$16,'pn ana'!$F$29)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>82.157542063970936</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$3,'pn ana'!$F$16,'pn ana'!$F$29)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>82.157542063970936</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="1B9E77">
-                    <a:alpha val="50000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$9,'pn ana'!$F$22,'pn ana'!$F$35)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.0952017103067959</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$9,'pn ana'!$F$22,'pn ana'!$F$35)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.0952017103067959</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="1B9E77">
-                    <a:alpha val="49804"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$3,'pn ana'!$B$16)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>76.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>227.072</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$9,'pn ana'!$B$22)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>85.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.281999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-163C-46ED-97D2-058F4FF258AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ana_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$10,'pn ana'!$F$23,'pn ana'!$F$37)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.0352303595406056</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$10,'pn ana'!$F$23,'pn ana'!$F$37)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.0352303595406056</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="D95F02">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$4,'pn ana'!$F$17,'pn ana'!$F$30)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>42.020919011516497</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$4,'pn ana'!$F$17,'pn ana'!$F$30)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>42.020919011516497</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="D95F02">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$4,'pn ana'!$B$17)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>26.279</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160.13999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$10,'pn ana'!$B$23)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>86.394000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-163C-46ED-97D2-058F4FF258AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ana_2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$5,'pn ana'!$F$18,'pn ana'!$F$31)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>96.137628388527105</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$5,'pn ana'!$F$18,'pn ana'!$F$31)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>96.137628388527105</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="47298A">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$11,'pn ana'!$F$24,'pn ana'!$F$37)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.1096701456710036</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$11,'pn ana'!$F$24,'pn ana'!$F$37)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.1096701456710036</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="47298A">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$5,'pn ana'!$B$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>70.254000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>223.47900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$11,'pn ana'!$B$24)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>85.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.480999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-163C-46ED-97D2-058F4FF258AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ana_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$6,'pn ana'!$F$19,'pn ana'!$F$32)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>96.232331798183296</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$6,'pn ana'!$F$19,'pn ana'!$F$32)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>96.232331798183296</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="E7298A">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$12,'pn ana'!$F$25,'pn ana'!$F$38)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.109208854495904</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('pn ana'!$F$12,'pn ana'!$F$25,'pn ana'!$F$38)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>3.109208854495904</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="E7298A">
-                    <a:alpha val="20000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$6,'pn ana'!$B$19)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>80.097999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>236.447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('pn ana'!$B$12,'pn ana'!$B$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>85.277000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.777000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-163C-46ED-97D2-058F4FF258AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="501388352"/>
-        <c:axId val="501389184"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="501388352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501389184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
-        <c:minorUnit val="20"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="501389184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="92"/>
-          <c:min val="80"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" i="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" i="1" baseline="-25000">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" i="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" i="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>(ST re 1 Hz)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501388352"/>
-        <c:crossesAt val="-50"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="0.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.60144518518518519"/>
-          <c:y val="0.55971000000000004"/>
-          <c:w val="0.28862060041407867"/>
-          <c:h val="0.21721061359867333"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900"/>
-              <a:t>Est. alignment of PN L and H re foot_syls (L*H)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>h_t</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="47298A">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$16:$F$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$16:$F$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="47298A">
-                    <a:alpha val="80000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'pn ana'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ana_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ana_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ana_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ana_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'pn ana'!$B$16:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>227.072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>223.47900000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>236.447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C743-4AA9-B109-D996ABD7E104}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>l_t</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="D95F02">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$16:$F$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$16:$F$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>84.741118289466016</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>40.889382377743985</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>82.978266682289018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>82.970403609691999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="D95F02"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'pn ana'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ana_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ana_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ana_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ana_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'pn ana'!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>76.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.254000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.097999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C743-4AA9-B109-D996ABD7E104}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1275931391"/>
-        <c:axId val="1583977055"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1275931391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1583977055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1583977055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="-50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900"/>
-                  <a:t>time from vowel onset (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="5.0328037027950211E-2"/>
-              <c:y val="0.19553263888888889"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1275931391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-        <c:minorUnit val="10"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="D9D9D9"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900"/>
-              <a:t>Estimated </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" i="1"/>
-              <a:t>f</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" baseline="-25000"/>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="900"/>
-              <a:t> of PN L and H re foot_syls (L*H)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>h_f0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$22:$F$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$22:$F$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="47298A">
-                    <a:alpha val="80000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'pn ana'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ana_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ana_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ana_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ana_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'pn ana'!$B$22:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>88.281999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.480999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87.777000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2584-43C1-9BDD-255F356E465B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn ana'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>l_f0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02">
-                  <a:alpha val="80000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$22:$F$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'pn ana'!$F$22:$F$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>2.8870313322402978</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.8112964489597942</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.9088628850395963</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.9101284815170061</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="D95F02">
-                    <a:alpha val="80000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'pn ana'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ana_0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ana_1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ana_2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ana_3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'pn ana'!$B$9:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>85.932000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86.394000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.277000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2584-43C1-9BDD-255F356E465B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1275931391"/>
-        <c:axId val="1583977055"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1275931391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1583977055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1583977055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="92"/>
-          <c:min val="82"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" i="1"/>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" baseline="-25000"/>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900"/>
-                  <a:t> (ST re 1 Hz)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="7.0512091824325135E-2"/>
-              <c:y val="0.3145951388888889"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1275931391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="0.5"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="D9D9D9"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -46127,23 +44233,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>301942</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279529</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>55412</xdr:rowOff>
+      <xdr:rowOff>33000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED5FC98-36BD-4716-A495-4F6978B13B21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D0ECC8-2271-4801-82D9-3F29DF1B3527}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46165,23 +44271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>301942</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279530</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>33000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5ECD9F-9AD3-4D55-8595-410109F43A98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49374E54-7F8A-48BE-BE19-733C45909014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46204,22 +44310,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>602036</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>31377</xdr:rowOff>
+      <xdr:colOff>261600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9201707-E768-4E39-A8E9-E6AB5B249F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A77136-CC8A-4FD5-960F-056C9EC5BF08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46241,23 +44347,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279529</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6022AEB6-7872-4202-AC20-10FD7110E5DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF37ACA-3CC2-438E-ADD5-9C10FA0204F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46272,158 +44378,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>279530</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503C51E0-68B0-48D5-985B-439175C4BF3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>590830</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACEC29B-43FD-471B-814D-B2EA5C1D7769}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>590829</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EDEA1B-E458-41FB-8CA9-8F712C25B585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590829</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC12401D-312B-4E06-92CF-340EFFAA46EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47084,74 +45038,6 @@
             <v>1.242</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>pre_syls0</v>
-          </cell>
-          <cell r="B6">
-            <v>4.1630000000000003</v>
-          </cell>
-          <cell r="C6">
-            <v>2.4128418911201299</v>
-          </cell>
-          <cell r="D6">
-            <v>5.9138523360805699</v>
-          </cell>
-          <cell r="E6">
-            <v>0.753</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>pre_syls1</v>
-          </cell>
-          <cell r="B7">
-            <v>4.7690000000000001</v>
-          </cell>
-          <cell r="C7">
-            <v>3.01781845320034</v>
-          </cell>
-          <cell r="D7">
-            <v>6.5198688534496201</v>
-          </cell>
-          <cell r="E7">
-            <v>0.754</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>pre_syls2</v>
-          </cell>
-          <cell r="B8">
-            <v>5.4089999999999998</v>
-          </cell>
-          <cell r="C8">
-            <v>2.8090979883082499</v>
-          </cell>
-          <cell r="D8">
-            <v>8.00821463236624</v>
-          </cell>
-          <cell r="E8">
-            <v>1.089</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pre_syls3</v>
-          </cell>
-          <cell r="B9">
-            <v>5.3140000000000001</v>
-          </cell>
-          <cell r="C9">
-            <v>2.71386321142232</v>
-          </cell>
-          <cell r="D9">
-            <v>7.9133003198900997</v>
-          </cell>
-          <cell r="E9">
-            <v>1.089</v>
-          </cell>
-        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -47232,74 +45118,6 @@
           </cell>
           <cell r="E5">
             <v>0.20699999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>pre_syls0</v>
-          </cell>
-          <cell r="B6">
-            <v>3.3220000000000001</v>
-          </cell>
-          <cell r="C6">
-            <v>3.0267743086411198</v>
-          </cell>
-          <cell r="D6">
-            <v>3.6177847036111102</v>
-          </cell>
-          <cell r="E6">
-            <v>0.13200000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>pre_syls1</v>
-          </cell>
-          <cell r="B7">
-            <v>3.5960000000000001</v>
-          </cell>
-          <cell r="C7">
-            <v>3.30067555097071</v>
-          </cell>
-          <cell r="D7">
-            <v>3.8919307733117798</v>
-          </cell>
-          <cell r="E7">
-            <v>0.13200000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>pre_syls2</v>
-          </cell>
-          <cell r="B8">
-            <v>3.6819999999999999</v>
-          </cell>
-          <cell r="C8">
-            <v>3.2537946899297099</v>
-          </cell>
-          <cell r="D8">
-            <v>4.1094851304302598</v>
-          </cell>
-          <cell r="E8">
-            <v>0.184</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pre_syls3</v>
-          </cell>
-          <cell r="B9">
-            <v>3.698</v>
-          </cell>
-          <cell r="C9">
-            <v>3.27030097347291</v>
-          </cell>
-          <cell r="D9">
-            <v>4.12608702616384</v>
-          </cell>
-          <cell r="E9">
-            <v>0.184</v>
           </cell>
         </row>
       </sheetData>
@@ -51329,8 +49147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E34FA70-B8BE-49C5-9F6E-7E44BDE296A5}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51343,23 +49161,23 @@
         <v>19</v>
       </c>
       <c r="B1" t="str">
-        <f>B11</f>
+        <f>B7</f>
         <v>predicted</v>
       </c>
       <c r="C1" t="str">
-        <f>C11</f>
+        <f>C7</f>
         <v>conf.low</v>
       </c>
       <c r="D1" t="str">
-        <f>D11</f>
+        <f>D7</f>
         <v>conf.high</v>
       </c>
       <c r="E1" t="str">
-        <f>E11</f>
+        <f>E7</f>
         <v>std.error</v>
       </c>
       <c r="F1" t="str">
-        <f>F11</f>
+        <f>F7</f>
         <v>CI diff</v>
       </c>
     </row>
@@ -51368,50 +49186,50 @@
         <f>RIGHT([13]nuc_f0_exc_b0!A2,5)</f>
         <v>syls1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <f>[13]nuc_f0_exc_b0!B2</f>
         <v>4.1630000000000003</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>[13]nuc_f0_exc_b0!C2</f>
         <v>2.4128418911201299</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>[13]nuc_f0_exc_b0!D2</f>
         <v>5.9138523360805699</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>[13]nuc_f0_exc_b0!E2</f>
         <v>0.753</v>
       </c>
       <c r="F2" s="13">
-        <f t="shared" ref="F2:F9" si="0">B2-C2</f>
+        <f t="shared" ref="F2:F5" si="0">B2-C2</f>
         <v>1.7501581088798703</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="19"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A3,5)</f>
         <v>syls2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <f>[13]nuc_f0_exc_b0!B3</f>
         <v>4.5659999999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>[13]nuc_f0_exc_b0!C3</f>
         <v>1.57007415012632</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>[13]nuc_f0_exc_b0!D3</f>
         <v>7.56256913422766</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>[13]nuc_f0_exc_b0!E3</f>
         <v>1.2410000000000001</v>
       </c>
@@ -51419,30 +49237,30 @@
         <f t="shared" si="0"/>
         <v>2.9959258498736796</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A4,5)</f>
         <v>syls3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f>[13]nuc_f0_exc_b0!B4</f>
         <v>6.08</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>[13]nuc_f0_exc_b0!C4</f>
         <v>4.3291122790255203</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>[13]nuc_f0_exc_b0!D4</f>
         <v>7.8301083595901799</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>[13]nuc_f0_exc_b0!E4</f>
         <v>0.753</v>
       </c>
@@ -51450,26 +49268,26 @@
         <f t="shared" si="0"/>
         <v>1.7508877209744798</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A5,5)</f>
         <v>syls4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>[13]nuc_f0_exc_b0!B5</f>
         <v>5.1120000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>[13]nuc_f0_exc_b0!C5</f>
         <v>2.1159174332932098</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>[13]nuc_f0_exc_b0!D5</f>
         <v>8.1085807122551508</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>[13]nuc_f0_exc_b0!E5</f>
         <v>1.242</v>
       </c>
@@ -51479,903 +49297,437 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>REPLACE([13]nuc_f0_exc_b0!A6,5,4,"")</f>
-        <v>pre_0</v>
-      </c>
-      <c r="B6" s="2">
-        <f>[13]nuc_f0_exc_b0!B6</f>
-        <v>4.1630000000000003</v>
-      </c>
-      <c r="C6" s="2">
-        <f>[13]nuc_f0_exc_b0!C6</f>
-        <v>2.4128418911201299</v>
-      </c>
-      <c r="D6" s="2">
-        <f>[13]nuc_f0_exc_b0!D6</f>
-        <v>5.9138523360805699</v>
-      </c>
-      <c r="E6" s="2">
-        <f>[13]nuc_f0_exc_b0!E6</f>
-        <v>0.753</v>
-      </c>
-      <c r="F6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.7501581088798703</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>REPLACE([13]nuc_f0_exc_b0!A7,5,4,"")</f>
-        <v>pre_1</v>
-      </c>
-      <c r="B7" s="2">
-        <f>[13]nuc_f0_exc_b0!B7</f>
-        <v>4.7690000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <f>[13]nuc_f0_exc_b0!C7</f>
-        <v>3.01781845320034</v>
-      </c>
-      <c r="D7" s="2">
-        <f>[13]nuc_f0_exc_b0!D7</f>
-        <v>6.5198688534496201</v>
-      </c>
-      <c r="E7" s="2">
-        <f>[13]nuc_f0_exc_b0!E7</f>
-        <v>0.754</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.7511815467996601</v>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>'nuc foot'!B34</f>
+        <v>predicted</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>'nuc foot'!C34</f>
+        <v>conf.low</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>'nuc foot'!D34</f>
+        <v>conf.high</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>'nuc foot'!E34</f>
+        <v>std.error</v>
+      </c>
+      <c r="F7" t="str">
+        <f>'nuc foot'!F34</f>
+        <v>CI diff</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>REPLACE([13]nuc_f0_exc_b0!A8,5,4,"")</f>
-        <v>pre_2</v>
-      </c>
-      <c r="B8" s="2">
-        <f>[13]nuc_f0_exc_b0!B8</f>
-        <v>5.4089999999999998</v>
-      </c>
-      <c r="C8" s="2">
-        <f>[13]nuc_f0_exc_b0!C8</f>
-        <v>2.8090979883082499</v>
-      </c>
-      <c r="D8" s="2">
-        <f>[13]nuc_f0_exc_b0!D8</f>
-        <v>8.00821463236624</v>
-      </c>
-      <c r="E8" s="2">
-        <f>[13]nuc_f0_exc_b0!E8</f>
-        <v>1.089</v>
+      <c r="A8" s="3" t="str">
+        <f>RIGHT([14]nuc_lh_slope_b0!A2,5)</f>
+        <v>syls1</v>
+      </c>
+      <c r="B8" s="1">
+        <f>[14]nuc_lh_slope_b0!B2</f>
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <f>[14]nuc_lh_slope_b0!C2</f>
+        <v>3.0267743086411198</v>
+      </c>
+      <c r="D8" s="1">
+        <f>[14]nuc_lh_slope_b0!D2</f>
+        <v>3.6177847036111102</v>
+      </c>
+      <c r="E8" s="1">
+        <f>[14]nuc_lh_slope_b0!E2</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>2.5999020116917499</v>
+        <f>B8-C8</f>
+        <v>0.29522569135888022</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>REPLACE([13]nuc_f0_exc_b0!A9,5,4,"")</f>
-        <v>pre_3</v>
-      </c>
-      <c r="B9" s="2">
-        <f>[13]nuc_f0_exc_b0!B9</f>
-        <v>5.3140000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <f>[13]nuc_f0_exc_b0!C9</f>
-        <v>2.71386321142232</v>
-      </c>
-      <c r="D9" s="2">
-        <f>[13]nuc_f0_exc_b0!D9</f>
-        <v>7.9133003198900997</v>
-      </c>
-      <c r="E9" s="2">
-        <f>[13]nuc_f0_exc_b0!E9</f>
-        <v>1.089</v>
+      <c r="A9" s="3" t="str">
+        <f>RIGHT([14]nuc_lh_slope_b0!A3,5)</f>
+        <v>syls2</v>
+      </c>
+      <c r="B9" s="1">
+        <f>[14]nuc_lh_slope_b0!B3</f>
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <f>[14]nuc_lh_slope_b0!C3</f>
+        <v>2.8081247478159699</v>
+      </c>
+      <c r="D9" s="1">
+        <f>[14]nuc_lh_slope_b0!D3</f>
+        <v>3.78972770634011</v>
+      </c>
+      <c r="E9" s="1">
+        <f>[14]nuc_lh_slope_b0!E3</f>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>2.60013678857768</v>
+        <f>B9-C9</f>
+        <v>0.49087525218403005</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F10" s="9"/>
+      <c r="A10" s="3" t="str">
+        <f>RIGHT([14]nuc_lh_slope_b0!A4,5)</f>
+        <v>syls3</v>
+      </c>
+      <c r="B10" s="1">
+        <f>[14]nuc_lh_slope_b0!B4</f>
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <f>[14]nuc_lh_slope_b0!C4</f>
+        <v>2.8973536996376401</v>
+      </c>
+      <c r="D10" s="1">
+        <f>[14]nuc_lh_slope_b0!D4</f>
+        <v>3.4882708086408698</v>
+      </c>
+      <c r="E10" s="1">
+        <f>[14]nuc_lh_slope_b0!E4</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F10" s="13">
+        <f>B10-C10</f>
+        <v>0.29564630036235995</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'nuc foot'!B34</f>
-        <v>predicted</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'nuc foot'!C34</f>
-        <v>conf.low</v>
-      </c>
-      <c r="D11" t="str">
-        <f>'nuc foot'!D34</f>
-        <v>conf.high</v>
-      </c>
-      <c r="E11" t="str">
-        <f>'nuc foot'!E34</f>
-        <v>std.error</v>
-      </c>
-      <c r="F11" t="str">
-        <f>'nuc foot'!F34</f>
-        <v>CI diff</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
-        <f>RIGHT([14]nuc_lh_slope_b0!A2,5)</f>
-        <v>syls1</v>
-      </c>
-      <c r="B12" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B2)</f>
-        <v>27.71572661723382</v>
-      </c>
-      <c r="C12" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C2)</f>
-        <v>20.630577267617088</v>
-      </c>
-      <c r="D12" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D2)</f>
-        <v>37.254945593039622</v>
-      </c>
-      <c r="E12" s="2">
-        <f>[14]nuc_lh_slope_b0!E2</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" ref="F12:F19" si="1">B12-C12</f>
-        <v>7.0851493496167315</v>
+      <c r="A11" s="3" t="str">
+        <f>RIGHT([14]nuc_lh_slope_b0!A5,5)</f>
+        <v>syls4</v>
+      </c>
+      <c r="B11" s="1">
+        <f>[14]nuc_lh_slope_b0!B5</f>
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <f>[14]nuc_lh_slope_b0!C5</f>
+        <v>2.0564958763876899</v>
+      </c>
+      <c r="D11" s="1">
+        <f>[14]nuc_lh_slope_b0!D5</f>
+        <v>3.0381038909685101</v>
+      </c>
+      <c r="E11" s="1">
+        <f>[14]nuc_lh_slope_b0!E5</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F11" s="13">
+        <f>B11-C11</f>
+        <v>0.49050412361231022</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f>RIGHT([14]nuc_lh_slope_b0!A3,5)</f>
-        <v>syls2</v>
-      </c>
-      <c r="B13" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B3)</f>
-        <v>27.085539833539045</v>
-      </c>
-      <c r="C13" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C3)</f>
-        <v>16.578799620099662</v>
-      </c>
-      <c r="D13" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D3)</f>
-        <v>44.244351179299429</v>
-      </c>
-      <c r="E13" s="2">
-        <f>[14]nuc_lh_slope_b0!E3</f>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="1"/>
-        <v>10.506740213439382</v>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
-        <f>RIGHT([14]nuc_lh_slope_b0!A4,5)</f>
-        <v>syls3</v>
-      </c>
-      <c r="B14" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B4)</f>
-        <v>24.361402132727282</v>
-      </c>
-      <c r="C14" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C4)</f>
-        <v>18.126114701782456</v>
-      </c>
-      <c r="D14" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D4)</f>
-        <v>32.729303517192818</v>
-      </c>
-      <c r="E14" s="2">
-        <f>[14]nuc_lh_slope_b0!E4</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="1"/>
-        <v>6.2352874309448261</v>
+        <f>A15</f>
+        <v>syls1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
-        <f>RIGHT([14]nuc_lh_slope_b0!A5,5)</f>
-        <v>syls4</v>
-      </c>
-      <c r="B15" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B5)</f>
-        <v>12.768740045693297</v>
-      </c>
-      <c r="C15" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C5)</f>
-        <v>7.8185246758993792</v>
-      </c>
-      <c r="D15" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D5)</f>
-        <v>20.865642170421967</v>
-      </c>
-      <c r="E15" s="2">
-        <f>[14]nuc_lh_slope_b0!E5</f>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="1"/>
-        <v>4.9502153697939182</v>
+        <f>A8</f>
+        <v>syls1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B8</f>
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <f>EXP(C15)</f>
+        <v>27.71572661723382</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>REPLACE([14]nuc_lh_slope_b0!A6,5,4,"")</f>
-        <v>pre_0</v>
-      </c>
-      <c r="B16" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B6)</f>
-        <v>27.71572661723382</v>
-      </c>
-      <c r="C16" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C6)</f>
-        <v>20.630577267617088</v>
-      </c>
-      <c r="D16" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D6)</f>
-        <v>37.254945593039622</v>
-      </c>
-      <c r="E16" s="2">
-        <f>[14]nuc_lh_slope_b0!E6</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" si="1"/>
-        <v>7.0851493496167315</v>
-      </c>
+      <c r="A16" s="3" t="str">
+        <f>A17</f>
+        <v>syls2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16" si="1">C16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>REPLACE([14]nuc_lh_slope_b0!A7,5,4,"")</f>
-        <v>pre_1</v>
-      </c>
-      <c r="B17" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B7)</f>
-        <v>36.452133901787732</v>
-      </c>
-      <c r="C17" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C7)</f>
-        <v>27.130961078278123</v>
-      </c>
-      <c r="D17" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D7)</f>
-        <v>49.005413583884383</v>
-      </c>
-      <c r="E17" s="2">
-        <f>[14]nuc_lh_slope_b0!E7</f>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="1"/>
-        <v>9.3211728235096096</v>
-      </c>
+      <c r="A17" s="3" t="str">
+        <f>A9</f>
+        <v>syls2</v>
+      </c>
+      <c r="B17">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B9</f>
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17" si="2">EXP(C17)</f>
+        <v>27.085539833539045</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>REPLACE([14]nuc_lh_slope_b0!A8,5,4,"")</f>
-        <v>pre_2</v>
-      </c>
-      <c r="B18" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B8)</f>
-        <v>39.725766206394184</v>
-      </c>
-      <c r="C18" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C8)</f>
-        <v>25.888392181670923</v>
-      </c>
-      <c r="D18" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D8)</f>
-        <v>60.915346036187046</v>
-      </c>
-      <c r="E18" s="2">
-        <f>[14]nuc_lh_slope_b0!E8</f>
-        <v>0.184</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="1"/>
-        <v>13.83737402472326</v>
-      </c>
+      <c r="A18" s="3" t="str">
+        <f>A19</f>
+        <v>syls3</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18" si="3">C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>REPLACE([14]nuc_lh_slope_b0!A9,5,4,"")</f>
-        <v>pre_3</v>
-      </c>
-      <c r="B19" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!B9)</f>
-        <v>40.366490592053189</v>
-      </c>
-      <c r="C19" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!C9)</f>
-        <v>26.319259550271266</v>
-      </c>
-      <c r="D19" s="2">
-        <f>EXP([14]nuc_lh_slope_b0!D9)</f>
-        <v>61.935097743272841</v>
-      </c>
-      <c r="E19" s="2">
-        <f>[14]nuc_lh_slope_b0!E9</f>
-        <v>0.184</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="1"/>
-        <v>14.047231041781924</v>
-      </c>
+      <c r="A19" s="3" t="str">
+        <f>A10</f>
+        <v>syls3</v>
+      </c>
+      <c r="B19">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <f>B10</f>
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="4">EXP(C19)</f>
+        <v>24.361402132727282</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="13"/>
       <c r="T19" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f>A21</f>
+        <v>syls4</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20" si="5">C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f>A11</f>
+        <v>syls4</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <f>B11</f>
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21" si="6">EXP(C21)</f>
+        <v>12.768740045693297</v>
+      </c>
+    </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f>A24</f>
-        <v>syls1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:D38" si="2">C23</f>
-        <v>0</v>
+      <c r="A23" t="str">
+        <f>A7</f>
+        <v>lh_slope</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B7</f>
+        <v>predicted</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f>A12</f>
+      <c r="A24" t="str">
+        <f>A8</f>
         <v>syls1</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <f>B12</f>
+      <c r="B24" s="1">
+        <f>EXP(B8)</f>
         <v>27.71572661723382</v>
       </c>
-      <c r="D24" s="1">
-        <f>LOG(C24)</f>
-        <v>1.4427262688826026</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f>A26</f>
+      <c r="A25" t="str">
+        <f>A9</f>
         <v>syls2</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:D25" si="7">EXP(B9)</f>
+        <v>27.085539833539045</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f>A13</f>
-        <v>syls2</v>
-      </c>
-      <c r="B26">
-        <f>B24</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <f>B13</f>
-        <v>27.085539833539045</v>
-      </c>
-      <c r="D26" s="1">
-        <f>LOG(C26)</f>
-        <v>1.4327374957988277</v>
-      </c>
+      <c r="A26" t="str">
+        <f>A10</f>
+        <v>syls3</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:D26" si="8">EXP(B10)</f>
+        <v>24.361402132727282</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f>A28</f>
-        <v>syls3</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f>A14</f>
-        <v>syls3</v>
-      </c>
-      <c r="B28">
-        <f>B26</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <f>B14</f>
-        <v>24.361402132727282</v>
-      </c>
-      <c r="D28" s="1">
-        <f>LOG(C28)</f>
-        <v>1.3867022807170832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f>A30</f>
+      <c r="A27" t="str">
+        <f>A11</f>
         <v>syls4</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f>A15</f>
-        <v>syls4</v>
-      </c>
-      <c r="B30">
-        <f>B28</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <f>B15</f>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:D27" si="9">EXP(B11)</f>
         <v>12.768740045693297</v>
       </c>
-      <c r="D30" s="1">
-        <f>LOG(C30)</f>
-        <v>1.1061480454075825</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
-        <f>A32</f>
-        <v>pre_0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
-        <f>A16</f>
-        <v>pre_0</v>
-      </c>
-      <c r="B32">
-        <f>B30</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <f>B16</f>
-        <v>27.71572661723382</v>
-      </c>
-      <c r="D32" s="1">
-        <f>LOG(C32)</f>
-        <v>1.4427262688826026</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
-        <f>A34</f>
-        <v>pre_1</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
-        <f>A17</f>
-        <v>pre_1</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34" si="3">B32</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <f>B17</f>
-        <v>36.452133901787732</v>
-      </c>
-      <c r="D34" s="1">
-        <f>LOG(C34)</f>
-        <v>1.5617229569240936</v>
-      </c>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
-        <f>A36</f>
-        <v>pre_2</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
-        <f>A18</f>
-        <v>pre_2</v>
-      </c>
-      <c r="B36">
-        <f>B34</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <f>B18</f>
-        <v>39.725766206394184</v>
-      </c>
-      <c r="D36" s="1">
-        <f>LOG(C36)</f>
-        <v>1.5990722823677732</v>
-      </c>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
-        <f>A38</f>
-        <v>pre_3</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
-        <f>A19</f>
-        <v>pre_3</v>
-      </c>
-      <c r="B38">
-        <f>B36</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <f>B19</f>
-        <v>40.366490592053189</v>
-      </c>
-      <c r="D38" s="1">
-        <f>LOG(C38)</f>
-        <v>1.6060209940782253</v>
-      </c>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>A11</f>
-        <v>lh_slope</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" ref="B41:G41" si="4">B11</f>
-        <v>predicted</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="4"/>
-        <v>conf.low</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="4"/>
-        <v>conf.high</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="4"/>
-        <v>std.error</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>CI diff</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" ref="A42:G42" si="5">A12</f>
-        <v>syls1</v>
-      </c>
-      <c r="B42" s="1">
-        <f>LOG(B12)</f>
-        <v>1.4427262688826026</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" ref="C42:D42" si="6">LOG(C12)</f>
-        <v>1.3145113802093684</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5711839334922966</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="5"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <f>B42-C42</f>
-        <v>0.12821488867323416</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" ref="A43:G43" si="7">A13</f>
-        <v>syls2</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" ref="B43:D43" si="8">LOG(B13)</f>
-        <v>1.4327374957988277</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2195530824724363</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="8"/>
-        <v>1.645857830779377</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="7"/>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ref="F43:F49" si="9">B43-C43</f>
-        <v>0.21318441332639138</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" ref="A44:G44" si="10">A14</f>
-        <v>syls3</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" ref="B44:D44" si="11">LOG(B14)</f>
-        <v>1.3867022807170832</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2583047238745988</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="11"/>
-        <v>1.5149367635769238</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="10"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="9"/>
-        <v>0.12839755684248444</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" ref="A45:G45" si="12">A15</f>
-        <v>syls4</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" ref="B45:D45" si="13">LOG(B15)</f>
-        <v>1.1061480454075825</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.89312481117196563</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3194317552964225</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="12"/>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="9"/>
-        <v>0.21302323423561687</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" ref="A46:G46" si="14">A16</f>
-        <v>pre_0</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" ref="B46:D46" si="15">LOG(B16)</f>
-        <v>1.4427262688826026</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="15"/>
-        <v>1.3145113802093684</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="15"/>
-        <v>1.5711839334922966</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="14"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="9"/>
-        <v>0.12821488867323416</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" ref="A47:G47" si="16">A17</f>
-        <v>pre_1</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" ref="B47:D47" si="17">LOG(B17)</f>
-        <v>1.5617229569240936</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="17"/>
-        <v>1.4334651783395547</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="17"/>
-        <v>1.6902440587987617</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="16"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="9"/>
-        <v>0.12825777858453891</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" ref="A48:G48" si="18">A18</f>
-        <v>pre_2</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" ref="B48:D48" si="19">LOG(B18)</f>
-        <v>1.5990722823677732</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="19"/>
-        <v>1.4131050790825752</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="19"/>
-        <v>1.7847267156093269</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="18"/>
-        <v>0.184</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="9"/>
-        <v>0.185967203285198</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" ref="A49:G49" si="20">A19</f>
-        <v>pre_3</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" ref="B49:D49" si="21">LOG(B19)</f>
-        <v>1.6060209940782253</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4202736669421177</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="21"/>
-        <v>1.791936827315554</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="20"/>
-        <v>0.184</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="9"/>
-        <v>0.18574732713610764</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Ch_6_Form/AH Corpus Foot Ana Graphs.xlsx
+++ b/Ch_6_Form/AH Corpus Foot Ana Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_6_Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3E7904-B086-493D-884C-A35CA32837A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB073D-671B-4715-AF84-5A5D728E2C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
   </bookViews>
   <sheets>
     <sheet name="nuc foot" sheetId="1" r:id="rId1"/>
@@ -20579,7 +20579,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0922087464209899E-2"/>
+                  <c:x val="2.9169242517909741E-2"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -20880,8 +20880,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7659757435577937E-2"/>
-                  <c:y val="4.9220361106923289E-3"/>
+                  <c:x val="4.178333757591185E-2"/>
+                  <c:y val="-4.7620754260894634E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -21017,8 +21017,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.8211730200932777E-2"/>
-                  <c:y val="-3.9350652430039032E-2"/>
+                  <c:x val="4.6458832269225377E-2"/>
+                  <c:y val="-3.9350603895217565E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -23549,13 +23549,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D89A-47CC-9A50-CA5555C20406}"/>
@@ -23579,13 +23572,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D89A-47CC-9A50-CA5555C20406}"/>
@@ -23609,13 +23595,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-D89A-47CC-9A50-CA5555C20406}"/>
@@ -23639,13 +23618,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-D89A-47CC-9A50-CA5555C20406}"/>
@@ -24043,10 +24015,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.09149923745741</c:v>
+                    <c:v>229.70503132901899</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24058,10 +24030,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.09149923745741</c:v>
+                    <c:v>229.70503132901899</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24088,10 +24060,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0151369438512035</c:v>
+                    <c:v>3.0277457279758977</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24103,10 +24075,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0151369438512035</c:v>
+                    <c:v>3.0277457279758977</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24128,10 +24100,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>76.537000000000006</c:v>
+                  <c:v>87.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.941</c:v>
+                  <c:v>186.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24143,10 +24115,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.927999999999997</c:v>
+                  <c:v>85.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.299000000000007</c:v>
+                  <c:v>87.722999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24207,10 +24179,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0138406106098898</c:v>
+                    <c:v>3.0293637447761057</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24222,10 +24194,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0138406106098898</c:v>
+                    <c:v>3.0293637447761057</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24255,10 +24227,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.32298043020481</c:v>
+                    <c:v>232.35465139314198</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24270,10 +24242,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.32298043020481</c:v>
+                    <c:v>232.35465139314198</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24298,10 +24270,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.462000000000003</c:v>
+                  <c:v>96.442999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258.90199999999999</c:v>
+                  <c:v>217.30199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24313,10 +24285,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.858999999999995</c:v>
+                  <c:v>85.132000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.573999999999998</c:v>
+                  <c:v>87.998999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24377,10 +24349,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.8786735783124</c:v>
+                    <c:v>227.27096437110299</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24392,10 +24364,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.8786735783124</c:v>
+                    <c:v>227.27096437110299</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24425,10 +24397,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0056957628165009</c:v>
+                    <c:v>3.0478528717370068</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24440,10 +24412,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0056957628165009</c:v>
+                    <c:v>3.0478528717370068</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24468,10 +24440,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>91.94</c:v>
+                  <c:v>102.935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>281.30099999999999</c:v>
+                  <c:v>239.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24483,10 +24455,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.73</c:v>
+                  <c:v>85.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.106999999999999</c:v>
+                  <c:v>88.537000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24548,10 +24520,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>128.34386456654491</c:v>
+                    <c:v>228.51164264535299</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24563,10 +24535,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>128.34386456654491</c:v>
+                    <c:v>228.51164264535299</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24596,10 +24568,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0046170398396015</c:v>
+                    <c:v>3.022423305099295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24611,10 +24583,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0046170398396015</c:v>
+                    <c:v>3.022423305099295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24639,10 +24611,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>111.06100000000001</c:v>
+                  <c:v>122.053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.73399999999998</c:v>
+                  <c:v>253.80699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24654,10 +24626,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.662000000000006</c:v>
+                  <c:v>84.962999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.998000000000005</c:v>
+                  <c:v>88.436999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25105,16 +25077,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25126,16 +25098,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25180,16 +25152,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>227.941</c:v>
+                  <c:v>186.215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258.90199999999999</c:v>
+                  <c:v>217.30199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>281.30099999999999</c:v>
+                  <c:v>239.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.73399999999998</c:v>
+                  <c:v>253.80699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25255,16 +25227,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25276,16 +25248,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.796660841209984</c:v>
+                    <c:v>131.96141861125</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>76.747275929476984</c:v>
+                    <c:v>121.778727606516</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>73.473922373026994</c:v>
+                    <c:v>124.53606004136799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25329,16 +25301,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>76.537000000000006</c:v>
+                  <c:v>87.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.462000000000003</c:v>
+                  <c:v>96.442999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.94</c:v>
+                  <c:v>102.935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.06100000000001</c:v>
+                  <c:v>122.053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25757,16 +25729,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25778,16 +25750,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25832,16 +25804,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>88.299000000000007</c:v>
+                  <c:v>87.722999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.573999999999998</c:v>
+                  <c:v>87.998999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.106999999999999</c:v>
+                  <c:v>88.537000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.998000000000005</c:v>
+                  <c:v>88.436999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25905,16 +25877,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25926,16 +25898,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.8849555236878928</c:v>
+                    <c:v>3.1436982758591938</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8839173560492952</c:v>
+                    <c:v>3.1768924866178025</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8999741913787034</c:v>
+                    <c:v>3.1669247456880925</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25981,16 +25953,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85.927999999999997</c:v>
+                  <c:v>85.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.858999999999995</c:v>
+                  <c:v>85.132000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.73</c:v>
+                  <c:v>85.028000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.662000000000006</c:v>
+                  <c:v>84.962999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26380,10 +26352,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.09149923745741</c:v>
+                    <c:v>229.70503132901899</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26395,10 +26367,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>129.09149923745741</c:v>
+                    <c:v>229.70503132901899</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26425,10 +26397,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0151369438512035</c:v>
+                    <c:v>3.0277457279758977</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26440,10 +26412,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0151369438512035</c:v>
+                    <c:v>3.0277457279758977</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26465,10 +26437,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>76.537000000000006</c:v>
+                  <c:v>87.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.941</c:v>
+                  <c:v>186.215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26480,10 +26452,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.927999999999997</c:v>
+                  <c:v>85.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.299000000000007</c:v>
+                  <c:v>87.722999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26544,10 +26516,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0300831591290063</c:v>
+                    <c:v>3.0133396377334094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26559,10 +26531,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0300831591290063</c:v>
+                    <c:v>3.0133396377334094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26592,10 +26564,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>168.200200341928</c:v>
+                    <c:v>76.5909128428668</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26607,10 +26579,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>168.200200341928</c:v>
+                    <c:v>76.5909128428668</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26635,10 +26607,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17.873000000000001</c:v>
+                  <c:v>28.847000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.89099999999999</c:v>
+                  <c:v>151.989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26650,10 +26622,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.837000000000003</c:v>
+                  <c:v>86.135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.930999999999997</c:v>
+                  <c:v>88.337999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26714,10 +26686,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>260.418622979389</c:v>
+                    <c:v>171.98108414506402</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26729,10 +26701,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>260.418622979389</c:v>
+                    <c:v>171.98108414506402</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26762,10 +26734,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0607067690925049</c:v>
+                    <c:v>3.0269080506953969</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26777,10 +26749,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0607067690925049</c:v>
+                    <c:v>3.0269080506953969</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26805,10 +26777,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>58.972000000000001</c:v>
+                  <c:v>70.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.572</c:v>
+                  <c:v>224.31399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26820,10 +26792,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.15</c:v>
+                  <c:v>85.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.087999999999994</c:v>
+                  <c:v>88.484999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26885,10 +26857,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>260.58531390092799</c:v>
+                    <c:v>172.19912449996679</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26900,10 +26872,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>260.58531390092799</c:v>
+                    <c:v>172.19912449996679</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26933,10 +26905,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0613067412349011</c:v>
+                    <c:v>3.0274157666644896</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26948,10 +26920,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0613067412349011</c:v>
+                    <c:v>3.0274157666644896</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26976,10 +26948,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>68.819999999999993</c:v>
+                  <c:v>80.019000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.56400000000002</c:v>
+                  <c:v>237.428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26991,10 +26963,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.012</c:v>
+                  <c:v>85.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.382999999999996</c:v>
+                  <c:v>87.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27443,16 +27415,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27464,16 +27436,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27518,16 +27490,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>227.941</c:v>
+                  <c:v>186.215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.89099999999999</c:v>
+                  <c:v>151.989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267.572</c:v>
+                  <c:v>224.31399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.56400000000002</c:v>
+                  <c:v>237.428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27593,16 +27565,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27614,16 +27586,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>76.559975406804995</c:v>
+                    <c:v>128.93398554068619</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>72.706583564653997</c:v>
+                    <c:v>39.513957004873006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>121.00795939708601</c:v>
+                    <c:v>72.450722025860983</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>121.04149142915901</c:v>
+                    <c:v>72.43113901333399</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27667,16 +27639,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>76.537000000000006</c:v>
+                  <c:v>87.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.873000000000001</c:v>
+                  <c:v>28.847000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.972000000000001</c:v>
+                  <c:v>70.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.819999999999993</c:v>
+                  <c:v>80.019000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28098,16 +28070,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28119,16 +28091,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28173,16 +28145,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>88.299000000000007</c:v>
+                  <c:v>87.722999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.930999999999997</c:v>
+                  <c:v>88.337999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.087999999999994</c:v>
+                  <c:v>88.484999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.382999999999996</c:v>
+                  <c:v>87.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28246,16 +28218,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28267,16 +28239,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.886249522707601</c:v>
+                    <c:v>3.1554464975958041</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9042301840794948</c:v>
+                    <c:v>2.8252074723890956</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1488507259562937</c:v>
+                    <c:v>2.9172747037978013</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1492430335612909</c:v>
+                    <c:v>2.9178042971464038</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28322,16 +28294,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85.927999999999997</c:v>
+                  <c:v>85.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.837000000000003</c:v>
+                  <c:v>86.135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.15</c:v>
+                  <c:v>85.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.012</c:v>
+                  <c:v>85.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28718,8 +28690,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.319638423452026E-2"/>
-                  <c:y val="-2.9619690174931136E-2"/>
+                  <c:x val="3.7309700897940994E-2"/>
+                  <c:y val="-2.9619747414658181E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -28856,8 +28828,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1294280128076735E-2"/>
-                  <c:y val="7.3756142452341099E-3"/>
+                  <c:x val="3.3634244834345219E-2"/>
+                  <c:y val="7.3755362742058406E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -31288,7 +31260,7 @@
                     <c:v>7.8240381452207099</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4179999999999999</c:v>
+                    <c:v>7.3917493772178195</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>7.5410123724501297</c:v>
@@ -31309,7 +31281,7 @@
                     <c:v>7.8240381452207099</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4179999999999999</c:v>
+                    <c:v>7.3917493772178195</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>7.5410123724501297</c:v>
@@ -48933,16 +48905,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>76.537000000000006</v>
+            <v>87.521000000000001</v>
           </cell>
           <cell r="C2">
-            <v>-52.554499237457399</v>
+            <v>-142.18403132901901</v>
           </cell>
           <cell r="D2">
-            <v>205.628969920917</v>
+            <v>317.225577208819</v>
           </cell>
           <cell r="E2">
-            <v>35.750999999999998</v>
+            <v>51.435000000000002</v>
           </cell>
         </row>
         <row r="3">
@@ -48950,16 +48922,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>17.873000000000001</v>
+            <v>28.847000000000001</v>
           </cell>
           <cell r="C3">
-            <v>-150.32720034192801</v>
+            <v>-47.743912842866798</v>
           </cell>
           <cell r="D3">
-            <v>186.07353833652201</v>
+            <v>105.437202953376</v>
           </cell>
           <cell r="E3">
-            <v>32.499000000000002</v>
+            <v>20.638000000000002</v>
           </cell>
         </row>
         <row r="4">
@@ -48967,16 +48939,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>58.972000000000001</v>
+            <v>70.17</v>
           </cell>
           <cell r="C4">
-            <v>-201.44662297938899</v>
+            <v>-101.811084145064</v>
           </cell>
           <cell r="D4">
-            <v>319.390747053903</v>
+            <v>242.15091752223299</v>
           </cell>
           <cell r="E4">
-            <v>49.503999999999998</v>
+            <v>32.359000000000002</v>
           </cell>
         </row>
         <row r="5">
@@ -48984,16 +48956,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>68.819999999999993</v>
+            <v>80.019000000000005</v>
           </cell>
           <cell r="C5">
-            <v>-191.76531390092799</v>
+            <v>-92.180124499966794</v>
           </cell>
           <cell r="D5">
-            <v>329.40492610112</v>
+            <v>252.217436731531</v>
           </cell>
           <cell r="E5">
-            <v>49.496000000000002</v>
+            <v>32.348999999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -49001,16 +48973,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B6">
-            <v>76.537000000000006</v>
+            <v>87.521000000000001</v>
           </cell>
           <cell r="C6">
-            <v>-52.554499237457399</v>
+            <v>-142.18403132901901</v>
           </cell>
           <cell r="D6">
-            <v>205.628969920917</v>
+            <v>317.225577208819</v>
           </cell>
           <cell r="E6">
-            <v>35.750999999999998</v>
+            <v>51.435000000000002</v>
           </cell>
         </row>
         <row r="7">
@@ -49018,16 +48990,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B7">
-            <v>85.462000000000003</v>
+            <v>96.442999999999998</v>
           </cell>
           <cell r="C7">
-            <v>-43.860980430204798</v>
+            <v>-135.91165139314199</v>
           </cell>
           <cell r="D7">
-            <v>214.78410344695499</v>
+            <v>328.79787602560799</v>
           </cell>
           <cell r="E7">
-            <v>35.719000000000001</v>
+            <v>51.207000000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -49035,16 +49007,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B8">
-            <v>91.94</v>
+            <v>102.935</v>
           </cell>
           <cell r="C8">
-            <v>-37.938673578312397</v>
+            <v>-124.335964371103</v>
           </cell>
           <cell r="D8">
-            <v>221.817731434048</v>
+            <v>330.206780160177</v>
           </cell>
           <cell r="E8">
-            <v>35.637</v>
+            <v>51.600999999999999</v>
           </cell>
         </row>
         <row r="9">
@@ -49052,16 +49024,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B9">
-            <v>111.06100000000001</v>
+            <v>122.053</v>
           </cell>
           <cell r="C9">
-            <v>-17.282864566544902</v>
+            <v>-106.458642645353</v>
           </cell>
           <cell r="D9">
-            <v>239.40469213730401</v>
+            <v>350.56525958932002</v>
           </cell>
           <cell r="E9">
-            <v>35.859000000000002</v>
+            <v>51.515999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -49083,16 +49055,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>85.927999999999997</v>
+            <v>85.227999999999994</v>
           </cell>
           <cell r="C2">
-            <v>82.912863056148794</v>
+            <v>82.200254272024097</v>
           </cell>
           <cell r="D2">
-            <v>88.942757903780603</v>
+            <v>88.255928474584906</v>
           </cell>
           <cell r="E2">
-            <v>1.361</v>
+            <v>1.373</v>
           </cell>
         </row>
         <row r="3">
@@ -49100,16 +49072,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>86.837000000000003</v>
+            <v>86.135000000000005</v>
           </cell>
           <cell r="C3">
-            <v>83.806916840870997</v>
+            <v>83.121660362266596</v>
           </cell>
           <cell r="D3">
-            <v>89.8661204174999</v>
+            <v>89.148137333046904</v>
           </cell>
           <cell r="E3">
-            <v>1.3740000000000001</v>
+            <v>1.359</v>
           </cell>
         </row>
         <row r="4">
@@ -49117,16 +49089,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>86.15</v>
+            <v>85.457999999999998</v>
           </cell>
           <cell r="C4">
-            <v>83.089293230907501</v>
+            <v>82.431091949304601</v>
           </cell>
           <cell r="D4">
-            <v>89.210463857942003</v>
+            <v>88.485711745757996</v>
           </cell>
           <cell r="E4">
-            <v>1.401</v>
+            <v>1.3720000000000001</v>
           </cell>
         </row>
         <row r="5">
@@ -49134,16 +49106,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>86.012</v>
+            <v>85.32</v>
           </cell>
           <cell r="C5">
-            <v>82.950693258765099</v>
+            <v>82.292584233335504</v>
           </cell>
           <cell r="D5">
-            <v>89.072363518897006</v>
+            <v>88.347662091301999</v>
           </cell>
           <cell r="E5">
-            <v>1.401</v>
+            <v>1.373</v>
           </cell>
         </row>
         <row r="6">
@@ -49151,16 +49123,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B6">
-            <v>85.927999999999997</v>
+            <v>85.227999999999994</v>
           </cell>
           <cell r="C6">
-            <v>82.912863056148794</v>
+            <v>82.200254272024097</v>
           </cell>
           <cell r="D6">
-            <v>88.942757903780603</v>
+            <v>88.255928474584906</v>
           </cell>
           <cell r="E6">
-            <v>1.361</v>
+            <v>1.373</v>
           </cell>
         </row>
         <row r="7">
@@ -49168,16 +49140,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B7">
-            <v>85.858999999999995</v>
+            <v>85.132000000000005</v>
           </cell>
           <cell r="C7">
-            <v>82.845159389390105</v>
+            <v>82.102636255223899</v>
           </cell>
           <cell r="D7">
-            <v>88.872352073141101</v>
+            <v>88.161280670752603</v>
           </cell>
           <cell r="E7">
-            <v>1.359</v>
+            <v>1.3740000000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -49185,16 +49157,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B8">
-            <v>85.73</v>
+            <v>85.028000000000006</v>
           </cell>
           <cell r="C8">
-            <v>82.724304237183503</v>
+            <v>81.980147128262999</v>
           </cell>
           <cell r="D8">
-            <v>88.736610440001996</v>
+            <v>88.074896162800101</v>
           </cell>
           <cell r="E8">
-            <v>1.3520000000000001</v>
+            <v>1.39</v>
           </cell>
         </row>
         <row r="9">
@@ -49202,16 +49174,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B9">
-            <v>85.662000000000006</v>
+            <v>84.962999999999994</v>
           </cell>
           <cell r="C9">
-            <v>82.657382960160405</v>
+            <v>81.940576694900699</v>
           </cell>
           <cell r="D9">
-            <v>88.667156542624596</v>
+            <v>87.985730969124404</v>
           </cell>
           <cell r="E9">
-            <v>1.351</v>
+            <v>1.3680000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -49233,16 +49205,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B5">
-            <v>227.941</v>
+            <v>186.215</v>
           </cell>
           <cell r="C5">
-            <v>151.38102459319501</v>
+            <v>57.281014459313802</v>
           </cell>
           <cell r="D5">
-            <v>304.50185515982997</v>
+            <v>315.14916990544498</v>
           </cell>
           <cell r="E5">
-            <v>22.145</v>
+            <v>32.164999999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -49250,16 +49222,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B6">
-            <v>193.89099999999999</v>
+            <v>151.989</v>
           </cell>
           <cell r="C6">
-            <v>121.18441643534599</v>
+            <v>112.475042995127</v>
           </cell>
           <cell r="D6">
-            <v>266.59771511573899</v>
+            <v>191.50330117014499</v>
           </cell>
           <cell r="E6">
-            <v>22.943999999999999</v>
+            <v>16.164000000000001</v>
           </cell>
         </row>
         <row r="7">
@@ -49267,16 +49239,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B7">
-            <v>267.572</v>
+            <v>224.31399999999999</v>
           </cell>
           <cell r="C7">
-            <v>146.56404060291399</v>
+            <v>151.86327797413901</v>
           </cell>
           <cell r="D7">
-            <v>388.57975252164698</v>
+            <v>296.76414997696702</v>
           </cell>
           <cell r="E7">
-            <v>33.106999999999999</v>
+            <v>22.977</v>
           </cell>
         </row>
         <row r="8">
@@ -49284,16 +49256,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B8">
-            <v>280.56400000000002</v>
+            <v>237.428</v>
           </cell>
           <cell r="C8">
-            <v>159.52250857084101</v>
+            <v>164.99686098666601</v>
           </cell>
           <cell r="D8">
-            <v>401.60591278308698</v>
+            <v>309.8598347002</v>
           </cell>
           <cell r="E8">
-            <v>33.101999999999997</v>
+            <v>22.981999999999999</v>
           </cell>
         </row>
         <row r="9">
@@ -49301,16 +49273,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B9">
-            <v>227.941</v>
+            <v>186.215</v>
           </cell>
           <cell r="C9">
-            <v>151.38102459319501</v>
+            <v>57.281014459313802</v>
           </cell>
           <cell r="D9">
-            <v>304.50185515982997</v>
+            <v>315.14916990544498</v>
           </cell>
           <cell r="E9">
-            <v>22.145</v>
+            <v>32.164999999999999</v>
           </cell>
         </row>
         <row r="10">
@@ -49318,16 +49290,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B10">
-            <v>258.90199999999999</v>
+            <v>217.30199999999999</v>
           </cell>
           <cell r="C10">
-            <v>182.10533915879</v>
+            <v>85.340581388749996</v>
           </cell>
           <cell r="D10">
-            <v>335.69854580428699</v>
+            <v>349.26363940551897</v>
           </cell>
           <cell r="E10">
-            <v>22.108000000000001</v>
+            <v>31.837</v>
           </cell>
         </row>
         <row r="11">
@@ -49335,16 +49307,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B11">
-            <v>281.30099999999999</v>
+            <v>239.34</v>
           </cell>
           <cell r="C11">
-            <v>204.553724070523</v>
+            <v>117.561272393484</v>
           </cell>
           <cell r="D11">
-            <v>358.04855031345397</v>
+            <v>361.118340570984</v>
           </cell>
           <cell r="E11">
-            <v>22.108000000000001</v>
+            <v>32.975000000000001</v>
           </cell>
         </row>
         <row r="12">
@@ -49352,16 +49324,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B12">
-            <v>295.73399999999998</v>
+            <v>253.80699999999999</v>
           </cell>
           <cell r="C12">
-            <v>222.26007762697299</v>
+            <v>129.270939958632</v>
           </cell>
           <cell r="D12">
-            <v>369.20738335257403</v>
+            <v>378.34233658065398</v>
           </cell>
           <cell r="E12">
-            <v>22.756</v>
+            <v>32.643999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -49383,16 +49355,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B5">
-            <v>88.299000000000007</v>
+            <v>87.722999999999999</v>
           </cell>
           <cell r="C5">
-            <v>85.412750477292406</v>
+            <v>84.567553502404195</v>
           </cell>
           <cell r="D5">
-            <v>91.184571340781403</v>
+            <v>90.877548812808598</v>
           </cell>
           <cell r="E5">
-            <v>1.3169999999999999</v>
+            <v>1.4239999999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -49400,16 +49372,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B6">
-            <v>88.930999999999997</v>
+            <v>88.337999999999994</v>
           </cell>
           <cell r="C6">
-            <v>86.026769815920503</v>
+            <v>85.512792527610898</v>
           </cell>
           <cell r="D6">
-            <v>91.836147537111202</v>
+            <v>91.162772275292994</v>
           </cell>
           <cell r="E6">
-            <v>1.3320000000000001</v>
+            <v>1.288</v>
           </cell>
         </row>
         <row r="7">
@@ -49417,16 +49389,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B7">
-            <v>89.087999999999994</v>
+            <v>88.484999999999999</v>
           </cell>
           <cell r="C7">
-            <v>85.9391492740437</v>
+            <v>85.567725296202198</v>
           </cell>
           <cell r="D7">
-            <v>92.236466706605896</v>
+            <v>91.402015796185296</v>
           </cell>
           <cell r="E7">
-            <v>1.4350000000000001</v>
+            <v>1.34</v>
           </cell>
         </row>
         <row r="8">
@@ -49434,16 +49406,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B8">
-            <v>88.382999999999996</v>
+            <v>87.78</v>
           </cell>
           <cell r="C8">
-            <v>85.233756966438705</v>
+            <v>84.862195702853597</v>
           </cell>
           <cell r="D8">
-            <v>91.531822794612907</v>
+            <v>90.697564500456295</v>
           </cell>
           <cell r="E8">
-            <v>1.4359999999999999</v>
+            <v>1.34</v>
           </cell>
         </row>
         <row r="9">
@@ -49451,16 +49423,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B9">
-            <v>88.299000000000007</v>
+            <v>87.722999999999999</v>
           </cell>
           <cell r="C9">
-            <v>85.412750477292406</v>
+            <v>84.567553502404195</v>
           </cell>
           <cell r="D9">
-            <v>91.184571340781403</v>
+            <v>90.877548812808598</v>
           </cell>
           <cell r="E9">
-            <v>1.3169999999999999</v>
+            <v>1.4239999999999999</v>
           </cell>
         </row>
         <row r="10">
@@ -49468,16 +49440,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B10">
-            <v>88.573999999999998</v>
+            <v>87.998999999999995</v>
           </cell>
           <cell r="C10">
-            <v>85.689044476312105</v>
+            <v>84.855301724140801</v>
           </cell>
           <cell r="D10">
-            <v>91.459635871414406</v>
+            <v>91.142765692695207</v>
           </cell>
           <cell r="E10">
-            <v>1.3160000000000001</v>
+            <v>1.4159999999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -49485,16 +49457,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B11">
-            <v>89.106999999999999</v>
+            <v>88.537000000000006</v>
           </cell>
           <cell r="C11">
-            <v>86.223082643950704</v>
+            <v>85.360107513382204</v>
           </cell>
           <cell r="D11">
-            <v>91.990649574908801</v>
+            <v>91.713958791305103</v>
           </cell>
           <cell r="E11">
-            <v>1.3149999999999999</v>
+            <v>1.4450000000000001</v>
           </cell>
         </row>
         <row r="12">
@@ -49502,16 +49474,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B12">
-            <v>88.998000000000005</v>
+            <v>88.436999999999998</v>
           </cell>
           <cell r="C12">
-            <v>86.098025808621301</v>
+            <v>85.270075254311905</v>
           </cell>
           <cell r="D12">
-            <v>91.897690918124496</v>
+            <v>91.604828170651103</v>
           </cell>
           <cell r="E12">
-            <v>1.3280000000000001</v>
+            <v>1.4350000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -49591,9 +49563,6 @@
           </cell>
           <cell r="E4">
             <v>1.331</v>
-          </cell>
-          <cell r="F4">
-            <v>1.4179999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -50179,7 +50148,7 @@
             <v>84.658187208315695</v>
           </cell>
           <cell r="D8">
-            <v>91.986086684520103</v>
+            <v>91.986086684520203</v>
           </cell>
           <cell r="E8">
             <v>1.7270000000000001</v>
@@ -50676,16 +50645,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE8130F-68F7-4AB5-A7B9-D1C7DF27C657}">
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="9.109375" style="9"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -51896,13 +51865,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC75F69-373F-44A2-A665-2B3BA39B0604}">
   <dimension ref="A1:AP44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="9.109375" style="9"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -52602,7 +52573,7 @@
       </c>
       <c r="D24" s="2">
         <f>[7]nuc_h_f0_b0!D8</f>
-        <v>91.986086684520103</v>
+        <v>91.986086684520203</v>
       </c>
       <c r="E24">
         <f>[7]nuc_h_f0_b0!E8</f>
@@ -53123,7 +53094,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53757,23 +53728,23 @@
       </c>
       <c r="B3" s="3">
         <f>[15]pn_l_t_b0!B6</f>
-        <v>76.537000000000006</v>
+        <v>87.521000000000001</v>
       </c>
       <c r="C3" s="3">
         <f>[15]pn_l_t_b0!C6</f>
-        <v>-52.554499237457399</v>
+        <v>-142.18403132901901</v>
       </c>
       <c r="D3" s="3">
         <f>[15]pn_l_t_b0!D6</f>
-        <v>205.628969920917</v>
+        <v>317.225577208819</v>
       </c>
       <c r="E3">
         <f>[15]pn_l_t_b0!E6</f>
-        <v>35.750999999999998</v>
+        <v>51.435000000000002</v>
       </c>
       <c r="F3">
         <f>B3-C3</f>
-        <v>129.09149923745741</v>
+        <v>229.70503132901899</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -53783,23 +53754,23 @@
       </c>
       <c r="B4" s="3">
         <f>[15]pn_l_t_b0!B7</f>
-        <v>85.462000000000003</v>
+        <v>96.442999999999998</v>
       </c>
       <c r="C4" s="3">
         <f>[15]pn_l_t_b0!C7</f>
-        <v>-43.860980430204798</v>
+        <v>-135.91165139314199</v>
       </c>
       <c r="D4" s="3">
         <f>[15]pn_l_t_b0!D7</f>
-        <v>214.78410344695499</v>
+        <v>328.79787602560799</v>
       </c>
       <c r="E4">
         <f>[15]pn_l_t_b0!E7</f>
-        <v>35.719000000000001</v>
+        <v>51.207000000000001</v>
       </c>
       <c r="F4">
         <f>B4-C4</f>
-        <v>129.32298043020481</v>
+        <v>232.35465139314198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -53809,23 +53780,23 @@
       </c>
       <c r="B5" s="3">
         <f>[15]pn_l_t_b0!B8</f>
-        <v>91.94</v>
+        <v>102.935</v>
       </c>
       <c r="C5" s="3">
         <f>[15]pn_l_t_b0!C8</f>
-        <v>-37.938673578312397</v>
+        <v>-124.335964371103</v>
       </c>
       <c r="D5" s="3">
         <f>[15]pn_l_t_b0!D8</f>
-        <v>221.817731434048</v>
+        <v>330.206780160177</v>
       </c>
       <c r="E5">
         <f>[15]pn_l_t_b0!E8</f>
-        <v>35.637</v>
+        <v>51.600999999999999</v>
       </c>
       <c r="F5">
         <f>B5-C5</f>
-        <v>129.8786735783124</v>
+        <v>227.27096437110299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -53835,23 +53806,23 @@
       </c>
       <c r="B6" s="3">
         <f>[15]pn_l_t_b0!B9</f>
-        <v>111.06100000000001</v>
+        <v>122.053</v>
       </c>
       <c r="C6" s="3">
         <f>[15]pn_l_t_b0!C9</f>
-        <v>-17.282864566544902</v>
+        <v>-106.458642645353</v>
       </c>
       <c r="D6" s="3">
         <f>[15]pn_l_t_b0!D9</f>
-        <v>239.40469213730401</v>
+        <v>350.56525958932002</v>
       </c>
       <c r="E6">
         <f>[15]pn_l_t_b0!E9</f>
-        <v>35.859000000000002</v>
+        <v>51.515999999999998</v>
       </c>
       <c r="F6">
         <f>B6-C6</f>
-        <v>128.34386456654491</v>
+        <v>228.51164264535299</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -53886,23 +53857,23 @@
       </c>
       <c r="B9" s="2">
         <f>[16]pn_l_f0_b0!B6</f>
-        <v>85.927999999999997</v>
+        <v>85.227999999999994</v>
       </c>
       <c r="C9" s="2">
         <f>[16]pn_l_f0_b0!C6</f>
-        <v>82.912863056148794</v>
+        <v>82.200254272024097</v>
       </c>
       <c r="D9" s="2">
         <f>[16]pn_l_f0_b0!D6</f>
-        <v>88.942757903780603</v>
+        <v>88.255928474584906</v>
       </c>
       <c r="E9">
         <f>[16]pn_l_f0_b0!E6</f>
-        <v>1.361</v>
+        <v>1.373</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F25" si="0">B9-C9</f>
-        <v>3.0151369438512035</v>
+        <v>3.0277457279758977</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -53912,23 +53883,23 @@
       </c>
       <c r="B10" s="2">
         <f>[16]pn_l_f0_b0!B7</f>
-        <v>85.858999999999995</v>
+        <v>85.132000000000005</v>
       </c>
       <c r="C10" s="2">
         <f>[16]pn_l_f0_b0!C7</f>
-        <v>82.845159389390105</v>
+        <v>82.102636255223899</v>
       </c>
       <c r="D10" s="2">
         <f>[16]pn_l_f0_b0!D7</f>
-        <v>88.872352073141101</v>
+        <v>88.161280670752603</v>
       </c>
       <c r="E10">
         <f>[16]pn_l_f0_b0!E7</f>
-        <v>1.359</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3.0138406106098898</v>
+        <v>3.0293637447761057</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -53938,23 +53909,23 @@
       </c>
       <c r="B11" s="2">
         <f>[16]pn_l_f0_b0!B8</f>
-        <v>85.73</v>
+        <v>85.028000000000006</v>
       </c>
       <c r="C11" s="2">
         <f>[16]pn_l_f0_b0!C8</f>
-        <v>82.724304237183503</v>
+        <v>81.980147128262999</v>
       </c>
       <c r="D11" s="2">
         <f>[16]pn_l_f0_b0!D8</f>
-        <v>88.736610440001996</v>
+        <v>88.074896162800101</v>
       </c>
       <c r="E11">
         <f>[16]pn_l_f0_b0!E8</f>
-        <v>1.3520000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3.0056957628165009</v>
+        <v>3.0478528717370068</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -53964,23 +53935,23 @@
       </c>
       <c r="B12" s="2">
         <f>[16]pn_l_f0_b0!B9</f>
-        <v>85.662000000000006</v>
+        <v>84.962999999999994</v>
       </c>
       <c r="C12" s="2">
         <f>[16]pn_l_f0_b0!C9</f>
-        <v>82.657382960160405</v>
+        <v>81.940576694900699</v>
       </c>
       <c r="D12" s="2">
         <f>[16]pn_l_f0_b0!D9</f>
-        <v>88.667156542624596</v>
+        <v>87.985730969124404</v>
       </c>
       <c r="E12">
         <f>[16]pn_l_f0_b0!E9</f>
-        <v>1.351</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3.0046170398396015</v>
+        <v>3.022423305099295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -54015,23 +53986,23 @@
       </c>
       <c r="B16" s="3">
         <f>[17]pn_h_t_b0!B9</f>
-        <v>227.941</v>
+        <v>186.215</v>
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C9</f>
-        <v>151.38102459319501</v>
+        <v>57.281014459313802</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D9</f>
-        <v>304.50185515982997</v>
+        <v>315.14916990544498</v>
       </c>
       <c r="E16">
         <f>[17]pn_h_t_b0!E9</f>
-        <v>22.145</v>
+        <v>32.164999999999999</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>76.559975406804995</v>
+        <v>128.93398554068619</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -54041,23 +54012,23 @@
       </c>
       <c r="B17" s="3">
         <f>[17]pn_h_t_b0!B10</f>
-        <v>258.90199999999999</v>
+        <v>217.30199999999999</v>
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C10</f>
-        <v>182.10533915879</v>
+        <v>85.340581388749996</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D10</f>
-        <v>335.69854580428699</v>
+        <v>349.26363940551897</v>
       </c>
       <c r="E17">
         <f>[17]pn_h_t_b0!E10</f>
-        <v>22.108000000000001</v>
+        <v>31.837</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>76.796660841209984</v>
+        <v>131.96141861125</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -54067,23 +54038,23 @@
       </c>
       <c r="B18" s="3">
         <f>[17]pn_h_t_b0!B11</f>
-        <v>281.30099999999999</v>
+        <v>239.34</v>
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C11</f>
-        <v>204.553724070523</v>
+        <v>117.561272393484</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D11</f>
-        <v>358.04855031345397</v>
+        <v>361.118340570984</v>
       </c>
       <c r="E18">
         <f>[17]pn_h_t_b0!E11</f>
-        <v>22.108000000000001</v>
+        <v>32.975000000000001</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>76.747275929476984</v>
+        <v>121.778727606516</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -54093,23 +54064,23 @@
       </c>
       <c r="B19" s="3">
         <f>[17]pn_h_t_b0!B12</f>
-        <v>295.73399999999998</v>
+        <v>253.80699999999999</v>
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C12</f>
-        <v>222.26007762697299</v>
+        <v>129.270939958632</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D12</f>
-        <v>369.20738335257403</v>
+        <v>378.34233658065398</v>
       </c>
       <c r="E19">
         <f>[17]pn_h_t_b0!E12</f>
-        <v>22.756</v>
+        <v>32.643999999999998</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>73.473922373026994</v>
+        <v>124.53606004136799</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -54147,23 +54118,23 @@
       </c>
       <c r="B22" s="2">
         <f>[18]pn_h_f0_b0!B9</f>
-        <v>88.299000000000007</v>
+        <v>87.722999999999999</v>
       </c>
       <c r="C22" s="2">
         <f>[18]pn_h_f0_b0!C9</f>
-        <v>85.412750477292406</v>
+        <v>84.567553502404195</v>
       </c>
       <c r="D22" s="2">
         <f>[18]pn_h_f0_b0!D9</f>
-        <v>91.184571340781403</v>
+        <v>90.877548812808598</v>
       </c>
       <c r="E22">
         <f>[18]pn_h_f0_b0!E9</f>
-        <v>1.3169999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>2.886249522707601</v>
+        <v>3.1554464975958041</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
@@ -54173,23 +54144,23 @@
       </c>
       <c r="B23" s="2">
         <f>[18]pn_h_f0_b0!B10</f>
-        <v>88.573999999999998</v>
+        <v>87.998999999999995</v>
       </c>
       <c r="C23" s="2">
         <f>[18]pn_h_f0_b0!C10</f>
-        <v>85.689044476312105</v>
+        <v>84.855301724140801</v>
       </c>
       <c r="D23" s="2">
         <f>[18]pn_h_f0_b0!D10</f>
-        <v>91.459635871414406</v>
+        <v>91.142765692695207</v>
       </c>
       <c r="E23">
         <f>[18]pn_h_f0_b0!E10</f>
-        <v>1.3160000000000001</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2.8849555236878928</v>
+        <v>3.1436982758591938</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
@@ -54199,23 +54170,23 @@
       </c>
       <c r="B24" s="2">
         <f>[18]pn_h_f0_b0!B11</f>
-        <v>89.106999999999999</v>
+        <v>88.537000000000006</v>
       </c>
       <c r="C24" s="2">
         <f>[18]pn_h_f0_b0!C11</f>
-        <v>86.223082643950704</v>
+        <v>85.360107513382204</v>
       </c>
       <c r="D24" s="2">
         <f>[18]pn_h_f0_b0!D11</f>
-        <v>91.990649574908801</v>
+        <v>91.713958791305103</v>
       </c>
       <c r="E24">
         <f>[18]pn_h_f0_b0!E11</f>
-        <v>1.3149999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>2.8839173560492952</v>
+        <v>3.1768924866178025</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
@@ -54225,23 +54196,23 @@
       </c>
       <c r="B25" s="2">
         <f>[18]pn_h_f0_b0!B12</f>
-        <v>88.998000000000005</v>
+        <v>88.436999999999998</v>
       </c>
       <c r="C25" s="2">
         <f>[18]pn_h_f0_b0!C12</f>
-        <v>86.098025808621301</v>
+        <v>85.270075254311905</v>
       </c>
       <c r="D25" s="2">
         <f>[18]pn_h_f0_b0!D12</f>
-        <v>91.897690918124496</v>
+        <v>91.604828170651103</v>
       </c>
       <c r="E25">
         <f>[18]pn_h_f0_b0!E12</f>
-        <v>1.3280000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>2.8999741913787034</v>
+        <v>3.1669247456880925</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -54390,23 +54361,23 @@
       </c>
       <c r="B3" s="3">
         <f>[15]pn_l_t_b0!B2</f>
-        <v>76.537000000000006</v>
+        <v>87.521000000000001</v>
       </c>
       <c r="C3" s="3">
         <f>[15]pn_l_t_b0!C2</f>
-        <v>-52.554499237457399</v>
+        <v>-142.18403132901901</v>
       </c>
       <c r="D3" s="3">
         <f>[15]pn_l_t_b0!D2</f>
-        <v>205.628969920917</v>
+        <v>317.225577208819</v>
       </c>
       <c r="E3">
         <f>[15]pn_l_t_b0!E2</f>
-        <v>35.750999999999998</v>
+        <v>51.435000000000002</v>
       </c>
       <c r="F3">
         <f>B3-C3</f>
-        <v>129.09149923745741</v>
+        <v>229.70503132901899</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -54416,23 +54387,23 @@
       </c>
       <c r="B4" s="3">
         <f>[15]pn_l_t_b0!B3</f>
-        <v>17.873000000000001</v>
+        <v>28.847000000000001</v>
       </c>
       <c r="C4" s="3">
         <f>[15]pn_l_t_b0!C3</f>
-        <v>-150.32720034192801</v>
+        <v>-47.743912842866798</v>
       </c>
       <c r="D4" s="3">
         <f>[15]pn_l_t_b0!D3</f>
-        <v>186.07353833652201</v>
+        <v>105.437202953376</v>
       </c>
       <c r="E4">
         <f>[15]pn_l_t_b0!E3</f>
-        <v>32.499000000000002</v>
+        <v>20.638000000000002</v>
       </c>
       <c r="F4">
         <f>B4-C4</f>
-        <v>168.200200341928</v>
+        <v>76.5909128428668</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -54442,23 +54413,23 @@
       </c>
       <c r="B5" s="3">
         <f>[15]pn_l_t_b0!B4</f>
-        <v>58.972000000000001</v>
+        <v>70.17</v>
       </c>
       <c r="C5" s="3">
         <f>[15]pn_l_t_b0!C4</f>
-        <v>-201.44662297938899</v>
+        <v>-101.811084145064</v>
       </c>
       <c r="D5" s="3">
         <f>[15]pn_l_t_b0!D4</f>
-        <v>319.390747053903</v>
+        <v>242.15091752223299</v>
       </c>
       <c r="E5">
         <f>[15]pn_l_t_b0!E4</f>
-        <v>49.503999999999998</v>
+        <v>32.359000000000002</v>
       </c>
       <c r="F5">
         <f>B5-C5</f>
-        <v>260.418622979389</v>
+        <v>171.98108414506402</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -54468,23 +54439,23 @@
       </c>
       <c r="B6" s="3">
         <f>[15]pn_l_t_b0!B5</f>
-        <v>68.819999999999993</v>
+        <v>80.019000000000005</v>
       </c>
       <c r="C6" s="3">
         <f>[15]pn_l_t_b0!C5</f>
-        <v>-191.76531390092799</v>
+        <v>-92.180124499966794</v>
       </c>
       <c r="D6" s="3">
         <f>[15]pn_l_t_b0!D5</f>
-        <v>329.40492610112</v>
+        <v>252.217436731531</v>
       </c>
       <c r="E6">
         <f>[15]pn_l_t_b0!E5</f>
-        <v>49.496000000000002</v>
+        <v>32.348999999999997</v>
       </c>
       <c r="F6">
         <f>B6-C6</f>
-        <v>260.58531390092799</v>
+        <v>172.19912449996679</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -54519,23 +54490,23 @@
       </c>
       <c r="B9" s="2">
         <f>[16]pn_l_f0_b0!B2</f>
-        <v>85.927999999999997</v>
+        <v>85.227999999999994</v>
       </c>
       <c r="C9" s="2">
         <f>[16]pn_l_f0_b0!C2</f>
-        <v>82.912863056148794</v>
+        <v>82.200254272024097</v>
       </c>
       <c r="D9" s="2">
         <f>[16]pn_l_f0_b0!D2</f>
-        <v>88.942757903780603</v>
+        <v>88.255928474584906</v>
       </c>
       <c r="E9" s="2">
         <f>[16]pn_l_f0_b0!E2</f>
-        <v>1.361</v>
+        <v>1.373</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F25" si="0">B9-C9</f>
-        <v>3.0151369438512035</v>
+        <v>3.0277457279758977</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -54545,23 +54516,23 @@
       </c>
       <c r="B10" s="2">
         <f>[16]pn_l_f0_b0!B3</f>
-        <v>86.837000000000003</v>
+        <v>86.135000000000005</v>
       </c>
       <c r="C10" s="2">
         <f>[16]pn_l_f0_b0!C3</f>
-        <v>83.806916840870997</v>
+        <v>83.121660362266596</v>
       </c>
       <c r="D10" s="2">
         <f>[16]pn_l_f0_b0!D3</f>
-        <v>89.8661204174999</v>
+        <v>89.148137333046904</v>
       </c>
       <c r="E10" s="2">
         <f>[16]pn_l_f0_b0!E3</f>
-        <v>1.3740000000000001</v>
+        <v>1.359</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3.0300831591290063</v>
+        <v>3.0133396377334094</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -54571,23 +54542,23 @@
       </c>
       <c r="B11" s="2">
         <f>[16]pn_l_f0_b0!B4</f>
-        <v>86.15</v>
+        <v>85.457999999999998</v>
       </c>
       <c r="C11" s="2">
         <f>[16]pn_l_f0_b0!C4</f>
-        <v>83.089293230907501</v>
+        <v>82.431091949304601</v>
       </c>
       <c r="D11" s="2">
         <f>[16]pn_l_f0_b0!D4</f>
-        <v>89.210463857942003</v>
+        <v>88.485711745757996</v>
       </c>
       <c r="E11" s="2">
         <f>[16]pn_l_f0_b0!E4</f>
-        <v>1.401</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3.0607067690925049</v>
+        <v>3.0269080506953969</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -54597,23 +54568,23 @@
       </c>
       <c r="B12" s="2">
         <f>[16]pn_l_f0_b0!B5</f>
-        <v>86.012</v>
+        <v>85.32</v>
       </c>
       <c r="C12" s="2">
         <f>[16]pn_l_f0_b0!C5</f>
-        <v>82.950693258765099</v>
+        <v>82.292584233335504</v>
       </c>
       <c r="D12" s="2">
         <f>[16]pn_l_f0_b0!D5</f>
-        <v>89.072363518897006</v>
+        <v>88.347662091301999</v>
       </c>
       <c r="E12" s="2">
         <f>[16]pn_l_f0_b0!E5</f>
-        <v>1.401</v>
+        <v>1.373</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3.0613067412349011</v>
+        <v>3.0274157666644896</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -54648,23 +54619,23 @@
       </c>
       <c r="B16" s="3">
         <f>[17]pn_h_t_b0!B5</f>
-        <v>227.941</v>
+        <v>186.215</v>
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C5</f>
-        <v>151.38102459319501</v>
+        <v>57.281014459313802</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D5</f>
-        <v>304.50185515982997</v>
+        <v>315.14916990544498</v>
       </c>
       <c r="E16" s="3">
         <f>[17]pn_h_t_b0!E5</f>
-        <v>22.145</v>
+        <v>32.164999999999999</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>76.559975406804995</v>
+        <v>128.93398554068619</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -54674,23 +54645,23 @@
       </c>
       <c r="B17" s="3">
         <f>[17]pn_h_t_b0!B6</f>
-        <v>193.89099999999999</v>
+        <v>151.989</v>
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C6</f>
-        <v>121.18441643534599</v>
+        <v>112.475042995127</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D6</f>
-        <v>266.59771511573899</v>
+        <v>191.50330117014499</v>
       </c>
       <c r="E17" s="3">
         <f>[17]pn_h_t_b0!E6</f>
-        <v>22.943999999999999</v>
+        <v>16.164000000000001</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>72.706583564653997</v>
+        <v>39.513957004873006</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -54700,23 +54671,23 @@
       </c>
       <c r="B18" s="3">
         <f>[17]pn_h_t_b0!B7</f>
-        <v>267.572</v>
+        <v>224.31399999999999</v>
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C7</f>
-        <v>146.56404060291399</v>
+        <v>151.86327797413901</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D7</f>
-        <v>388.57975252164698</v>
+        <v>296.76414997696702</v>
       </c>
       <c r="E18" s="3">
         <f>[17]pn_h_t_b0!E7</f>
-        <v>33.106999999999999</v>
+        <v>22.977</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>121.00795939708601</v>
+        <v>72.450722025860983</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -54726,23 +54697,23 @@
       </c>
       <c r="B19" s="3">
         <f>[17]pn_h_t_b0!B8</f>
-        <v>280.56400000000002</v>
+        <v>237.428</v>
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C8</f>
-        <v>159.52250857084101</v>
+        <v>164.99686098666601</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D8</f>
-        <v>401.60591278308698</v>
+        <v>309.8598347002</v>
       </c>
       <c r="E19" s="3">
         <f>[17]pn_h_t_b0!E8</f>
-        <v>33.101999999999997</v>
+        <v>22.981999999999999</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>121.04149142915901</v>
+        <v>72.43113901333399</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -54780,23 +54751,23 @@
       </c>
       <c r="B22" s="2">
         <f>[18]pn_h_f0_b0!B5</f>
-        <v>88.299000000000007</v>
+        <v>87.722999999999999</v>
       </c>
       <c r="C22" s="2">
         <f>[18]pn_h_f0_b0!C5</f>
-        <v>85.412750477292406</v>
+        <v>84.567553502404195</v>
       </c>
       <c r="D22" s="2">
         <f>[18]pn_h_f0_b0!D5</f>
-        <v>91.184571340781403</v>
+        <v>90.877548812808598</v>
       </c>
       <c r="E22" s="2">
         <f>[18]pn_h_f0_b0!E5</f>
-        <v>1.3169999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>2.886249522707601</v>
+        <v>3.1554464975958041</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
@@ -54806,23 +54777,23 @@
       </c>
       <c r="B23" s="2">
         <f>[18]pn_h_f0_b0!B6</f>
-        <v>88.930999999999997</v>
+        <v>88.337999999999994</v>
       </c>
       <c r="C23" s="2">
         <f>[18]pn_h_f0_b0!C6</f>
-        <v>86.026769815920503</v>
+        <v>85.512792527610898</v>
       </c>
       <c r="D23" s="2">
         <f>[18]pn_h_f0_b0!D6</f>
-        <v>91.836147537111202</v>
+        <v>91.162772275292994</v>
       </c>
       <c r="E23" s="2">
         <f>[18]pn_h_f0_b0!E6</f>
-        <v>1.3320000000000001</v>
+        <v>1.288</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2.9042301840794948</v>
+        <v>2.8252074723890956</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
@@ -54832,23 +54803,23 @@
       </c>
       <c r="B24" s="2">
         <f>[18]pn_h_f0_b0!B7</f>
-        <v>89.087999999999994</v>
+        <v>88.484999999999999</v>
       </c>
       <c r="C24" s="2">
         <f>[18]pn_h_f0_b0!C7</f>
-        <v>85.9391492740437</v>
+        <v>85.567725296202198</v>
       </c>
       <c r="D24" s="2">
         <f>[18]pn_h_f0_b0!D7</f>
-        <v>92.236466706605896</v>
+        <v>91.402015796185296</v>
       </c>
       <c r="E24" s="2">
         <f>[18]pn_h_f0_b0!E7</f>
-        <v>1.4350000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>3.1488507259562937</v>
+        <v>2.9172747037978013</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
@@ -54858,23 +54829,23 @@
       </c>
       <c r="B25" s="2">
         <f>[18]pn_h_f0_b0!B8</f>
-        <v>88.382999999999996</v>
+        <v>87.78</v>
       </c>
       <c r="C25" s="2">
         <f>[18]pn_h_f0_b0!C8</f>
-        <v>85.233756966438705</v>
+        <v>84.862195702853597</v>
       </c>
       <c r="D25" s="2">
         <f>[18]pn_h_f0_b0!D8</f>
-        <v>91.531822794612907</v>
+        <v>90.697564500456295</v>
       </c>
       <c r="E25" s="2">
         <f>[18]pn_h_f0_b0!E8</f>
-        <v>1.4359999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>3.1492430335612909</v>
+        <v>2.9178042971464038</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -54967,8 +54938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1DDAF-16D8-40D4-8656-D048765803AC}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55023,7 +54994,7 @@
         <v>1.321</v>
       </c>
       <c r="F2" s="13">
-        <f t="shared" ref="F2:F5" si="0">B2-C2</f>
+        <f>B2-C2</f>
         <v>7.6542019279553797</v>
       </c>
       <c r="R2" s="16" t="s">
@@ -55054,7 +55025,7 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F5" si="0">B3-C3</f>
         <v>7.8240381452207099</v>
       </c>
       <c r="R3" s="18" t="s">
@@ -55084,9 +55055,9 @@
         <f>[19]pn_f0_exc_b0!E4</f>
         <v>1.331</v>
       </c>
-      <c r="F4" s="1">
-        <f>[19]pn_f0_exc_b0!F4</f>
-        <v>1.4179999999999999</v>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>7.3917493772178195</v>
       </c>
       <c r="R4" s="15"/>
     </row>
